--- a/Relacoes/DiferençaPromoçõesQuantidade/DiferençaPromoções.xlsx
+++ b/Relacoes/DiferençaPromoçõesQuantidade/DiferençaPromoções.xlsx
@@ -1,26 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juan\Desktop\Varejo-Consuelo\Relacoes\DiferençaPromoçõesQuantidade\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F2A3678A-6277-4631-97E0-3B0FF9F0C2EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EABFAC48-A266-49D1-AE92-A15D6E350FE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="495" windowWidth="19440" windowHeight="11520"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DiferençaPromoções" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Produto</t>
   </si>
@@ -39,11 +50,20 @@
   <si>
     <t>Diferença</t>
   </si>
+  <si>
+    <t>Média</t>
+  </si>
+  <si>
+    <t>Desv. Padrão</t>
+  </si>
+  <si>
+    <t>Erro Padrão</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -373,7 +393,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -530,17 +550,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -551,6 +560,34 @@
         <color indexed="64"/>
       </right>
       <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -601,7 +638,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -612,13 +649,26 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -975,11 +1025,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F604"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J604"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -989,30 +1039,43 @@
     <col min="3" max="3" width="20.5703125" customWidth="1"/>
     <col min="4" max="4" width="17.85546875" customWidth="1"/>
     <col min="5" max="5" width="21.7109375" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" customWidth="1"/>
+    <col min="9" max="9" width="17.140625" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1028,11 +1091,23 @@
       <c r="E2" s="2">
         <v>1201</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="4">
         <v>0.99375519999999995</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H2" s="7">
+        <f>AVERAGE(F2:F604)</f>
+        <v>0.98871234850746326</v>
+      </c>
+      <c r="I2" s="9">
+        <f>_xlfn.STDEV.S(F2:F604)</f>
+        <v>0.29341251053028933</v>
+      </c>
+      <c r="J2" s="10">
+        <f>I2/SQRT(COUNT(F2:F604))</f>
+        <v>1.1948681126224667E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1048,11 +1123,11 @@
       <c r="E3" s="2">
         <v>1203</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="4">
         <v>0.65752286000000004</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1068,11 +1143,11 @@
       <c r="E4" s="2">
         <v>1279</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="4">
         <v>1.0699765400000001</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -1088,11 +1163,11 @@
       <c r="E5" s="2">
         <v>1376</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="4">
         <v>0.70857557999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -1108,11 +1183,11 @@
       <c r="E6" s="2">
         <v>1471</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="4">
         <v>1.07681849</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -1128,11 +1203,11 @@
       <c r="E7" s="2">
         <v>1575</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="4">
         <v>1.4802116400000001</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>8</v>
       </c>
@@ -1148,11 +1223,11 @@
       <c r="E8" s="2">
         <v>1508</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="4">
         <v>0.95596817000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>9</v>
       </c>
@@ -1168,11 +1243,11 @@
       <c r="E9" s="2">
         <v>1527</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="4">
         <v>0.99660654000000004</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>11</v>
       </c>
@@ -1188,11 +1263,11 @@
       <c r="E10" s="2">
         <v>1387</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="4">
         <v>0.87959624999999997</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>13</v>
       </c>
@@ -1208,11 +1283,11 @@
       <c r="E11" s="2">
         <v>1745</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="4">
         <v>0.87400736999999995</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>14</v>
       </c>
@@ -1228,11 +1303,11 @@
       <c r="E12" s="2">
         <v>1494</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="4">
         <v>1.00066934</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>15</v>
       </c>
@@ -1248,11 +1323,11 @@
       <c r="E13" s="2">
         <v>1406</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="4">
         <v>0.83854907999999995</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>16</v>
       </c>
@@ -1268,11 +1343,11 @@
       <c r="E14" s="2">
         <v>1472</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14" s="4">
         <v>0.93614129999999995</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>17</v>
       </c>
@@ -1288,11 +1363,11 @@
       <c r="E15" s="2">
         <v>1469</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F15" s="4">
         <v>0.81484003000000005</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>21</v>
       </c>
@@ -1308,7 +1383,7 @@
       <c r="E16" s="2">
         <v>1549</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F16" s="4">
         <v>0.53453841000000002</v>
       </c>
     </row>
@@ -1328,7 +1403,7 @@
       <c r="E17" s="2">
         <v>1687</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F17" s="4">
         <v>0.92471844000000003</v>
       </c>
     </row>
@@ -1348,7 +1423,7 @@
       <c r="E18" s="2">
         <v>1648</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F18" s="4">
         <v>0.82827669999999998</v>
       </c>
     </row>
@@ -1368,7 +1443,7 @@
       <c r="E19" s="2">
         <v>1626</v>
       </c>
-      <c r="F19" s="5">
+      <c r="F19" s="4">
         <v>1.0701107000000001</v>
       </c>
     </row>
@@ -1388,7 +1463,7 @@
       <c r="E20" s="2">
         <v>1450</v>
       </c>
-      <c r="F20" s="5">
+      <c r="F20" s="4">
         <v>0.93600000000000005</v>
       </c>
     </row>
@@ -1408,7 +1483,7 @@
       <c r="E21" s="2">
         <v>1454</v>
       </c>
-      <c r="F21" s="5">
+      <c r="F21" s="4">
         <v>0.67633054999999997</v>
       </c>
     </row>
@@ -1428,7 +1503,7 @@
       <c r="E22" s="2">
         <v>1417</v>
       </c>
-      <c r="F22" s="5">
+      <c r="F22" s="4">
         <v>0.73676781999999996</v>
       </c>
     </row>
@@ -1448,7 +1523,7 @@
       <c r="E23" s="2">
         <v>1537</v>
       </c>
-      <c r="F23" s="5">
+      <c r="F23" s="4">
         <v>1.2608978500000001</v>
       </c>
     </row>
@@ -1468,7 +1543,7 @@
       <c r="E24" s="2">
         <v>1459</v>
       </c>
-      <c r="F24" s="5">
+      <c r="F24" s="4">
         <v>0.50915500000000002</v>
       </c>
     </row>
@@ -1488,7 +1563,7 @@
       <c r="E25" s="2">
         <v>1431</v>
       </c>
-      <c r="F25" s="5">
+      <c r="F25" s="4">
         <v>1.3305380899999999</v>
       </c>
     </row>
@@ -1508,7 +1583,7 @@
       <c r="E26" s="2">
         <v>1520</v>
       </c>
-      <c r="F26" s="5">
+      <c r="F26" s="4">
         <v>0.92763158000000001</v>
       </c>
     </row>
@@ -1528,7 +1603,7 @@
       <c r="E27" s="2">
         <v>1551</v>
       </c>
-      <c r="F27" s="5">
+      <c r="F27" s="4">
         <v>1.2772404900000001</v>
       </c>
     </row>
@@ -1548,7 +1623,7 @@
       <c r="E28" s="2">
         <v>1379</v>
       </c>
-      <c r="F28" s="5">
+      <c r="F28" s="4">
         <v>0.96274473999999999</v>
       </c>
     </row>
@@ -1568,7 +1643,7 @@
       <c r="E29" s="2">
         <v>1291</v>
       </c>
-      <c r="F29" s="5">
+      <c r="F29" s="4">
         <v>1.0827265699999999</v>
       </c>
     </row>
@@ -1588,7 +1663,7 @@
       <c r="E30" s="2">
         <v>1504</v>
       </c>
-      <c r="F30" s="5">
+      <c r="F30" s="4">
         <v>1.2706116999999999</v>
       </c>
     </row>
@@ -1608,7 +1683,7 @@
       <c r="E31" s="2">
         <v>1572</v>
       </c>
-      <c r="F31" s="5">
+      <c r="F31" s="4">
         <v>0.52290075999999996</v>
       </c>
     </row>
@@ -1628,7 +1703,7 @@
       <c r="E32" s="2">
         <v>1586</v>
       </c>
-      <c r="F32" s="5">
+      <c r="F32" s="4">
         <v>0.75460276999999998</v>
       </c>
     </row>
@@ -1648,7 +1723,7 @@
       <c r="E33" s="2">
         <v>1479</v>
       </c>
-      <c r="F33" s="5">
+      <c r="F33" s="4">
         <v>1.1690331300000001</v>
       </c>
     </row>
@@ -1668,7 +1743,7 @@
       <c r="E34" s="2">
         <v>1561</v>
       </c>
-      <c r="F34" s="5">
+      <c r="F34" s="4">
         <v>0.99579024000000005</v>
       </c>
     </row>
@@ -1688,7 +1763,7 @@
       <c r="E35" s="2">
         <v>1563</v>
       </c>
-      <c r="F35" s="5">
+      <c r="F35" s="4">
         <v>0.85988483999999998</v>
       </c>
     </row>
@@ -1708,7 +1783,7 @@
       <c r="E36" s="2">
         <v>1390</v>
       </c>
-      <c r="F36" s="5">
+      <c r="F36" s="4">
         <v>1.1489658300000001</v>
       </c>
     </row>
@@ -1728,7 +1803,7 @@
       <c r="E37" s="2">
         <v>1431</v>
       </c>
-      <c r="F37" s="5">
+      <c r="F37" s="4">
         <v>1.17276186</v>
       </c>
     </row>
@@ -1748,7 +1823,7 @@
       <c r="E38" s="2">
         <v>1407</v>
       </c>
-      <c r="F38" s="5">
+      <c r="F38" s="4">
         <v>0.98536727999999996</v>
       </c>
     </row>
@@ -1768,7 +1843,7 @@
       <c r="E39" s="2">
         <v>1487</v>
       </c>
-      <c r="F39" s="5">
+      <c r="F39" s="4">
         <v>1.29764627</v>
       </c>
     </row>
@@ -1788,7 +1863,7 @@
       <c r="E40" s="2">
         <v>1306</v>
       </c>
-      <c r="F40" s="5">
+      <c r="F40" s="4">
         <v>0.85618822000000006</v>
       </c>
     </row>
@@ -1808,7 +1883,7 @@
       <c r="E41" s="2">
         <v>1506</v>
       </c>
-      <c r="F41" s="5">
+      <c r="F41" s="4">
         <v>1.12371029</v>
       </c>
     </row>
@@ -1828,7 +1903,7 @@
       <c r="E42" s="2">
         <v>1440</v>
       </c>
-      <c r="F42" s="5">
+      <c r="F42" s="4">
         <v>1.4862500000000001</v>
       </c>
     </row>
@@ -1848,7 +1923,7 @@
       <c r="E43" s="2">
         <v>1572</v>
       </c>
-      <c r="F43" s="5">
+      <c r="F43" s="4">
         <v>1.28689567</v>
       </c>
     </row>
@@ -1868,7 +1943,7 @@
       <c r="E44" s="2">
         <v>1558</v>
       </c>
-      <c r="F44" s="5">
+      <c r="F44" s="4">
         <v>0.75750963000000004</v>
       </c>
     </row>
@@ -1888,7 +1963,7 @@
       <c r="E45" s="2">
         <v>1377</v>
       </c>
-      <c r="F45" s="5">
+      <c r="F45" s="4">
         <v>1.00555835</v>
       </c>
     </row>
@@ -1908,7 +1983,7 @@
       <c r="E46" s="2">
         <v>1373</v>
       </c>
-      <c r="F46" s="5">
+      <c r="F46" s="4">
         <v>1.33197378</v>
       </c>
     </row>
@@ -1928,7 +2003,7 @@
       <c r="E47" s="2">
         <v>1500</v>
       </c>
-      <c r="F47" s="5">
+      <c r="F47" s="4">
         <v>0.96666666999999995</v>
       </c>
     </row>
@@ -1948,7 +2023,7 @@
       <c r="E48" s="2">
         <v>1493</v>
       </c>
-      <c r="F48" s="5">
+      <c r="F48" s="4">
         <v>1.39651708</v>
       </c>
     </row>
@@ -1968,7 +2043,7 @@
       <c r="E49" s="2">
         <v>1451</v>
       </c>
-      <c r="F49" s="5">
+      <c r="F49" s="4">
         <v>0.73604411000000003</v>
       </c>
     </row>
@@ -1988,7 +2063,7 @@
       <c r="E50" s="2">
         <v>1395</v>
       </c>
-      <c r="F50" s="5">
+      <c r="F50" s="4">
         <v>1.22473118</v>
       </c>
     </row>
@@ -2008,7 +2083,7 @@
       <c r="E51" s="2">
         <v>1431</v>
       </c>
-      <c r="F51" s="5">
+      <c r="F51" s="4">
         <v>1.0808874900000001</v>
       </c>
     </row>
@@ -2028,7 +2103,7 @@
       <c r="E52" s="2">
         <v>1329</v>
       </c>
-      <c r="F52" s="5">
+      <c r="F52" s="4">
         <v>1.0446451000000001</v>
       </c>
     </row>
@@ -2048,7 +2123,7 @@
       <c r="E53" s="2">
         <v>1479</v>
       </c>
-      <c r="F53" s="5">
+      <c r="F53" s="4">
         <v>0.49808428999999999</v>
       </c>
     </row>
@@ -2068,7 +2143,7 @@
       <c r="E54" s="2">
         <v>1456</v>
       </c>
-      <c r="F54" s="5">
+      <c r="F54" s="4">
         <v>0.71428570999999996</v>
       </c>
     </row>
@@ -2088,7 +2163,7 @@
       <c r="E55" s="2">
         <v>1514</v>
       </c>
-      <c r="F55" s="5">
+      <c r="F55" s="4">
         <v>1.0119833899999999</v>
       </c>
     </row>
@@ -2108,7 +2183,7 @@
       <c r="E56" s="2">
         <v>1568</v>
       </c>
-      <c r="F56" s="5">
+      <c r="F56" s="4">
         <v>0.79671555999999999</v>
       </c>
     </row>
@@ -2128,7 +2203,7 @@
       <c r="E57" s="2">
         <v>1270</v>
       </c>
-      <c r="F57" s="5">
+      <c r="F57" s="4">
         <v>1.11023622</v>
       </c>
     </row>
@@ -2148,7 +2223,7 @@
       <c r="E58" s="2">
         <v>1490</v>
       </c>
-      <c r="F58" s="5">
+      <c r="F58" s="4">
         <v>0.59295302000000005</v>
       </c>
     </row>
@@ -2168,7 +2243,7 @@
       <c r="E59" s="2">
         <v>1513</v>
       </c>
-      <c r="F59" s="5">
+      <c r="F59" s="4">
         <v>0.99140779999999995</v>
       </c>
     </row>
@@ -2188,7 +2263,7 @@
       <c r="E60" s="2">
         <v>1450</v>
       </c>
-      <c r="F60" s="5">
+      <c r="F60" s="4">
         <v>1.3705747100000001</v>
       </c>
     </row>
@@ -2208,7 +2283,7 @@
       <c r="E61" s="2">
         <v>1522</v>
       </c>
-      <c r="F61" s="5">
+      <c r="F61" s="4">
         <v>0.70810337000000001</v>
       </c>
     </row>
@@ -2228,7 +2303,7 @@
       <c r="E62" s="2">
         <v>1344</v>
       </c>
-      <c r="F62" s="5">
+      <c r="F62" s="4">
         <v>0.84183673000000003</v>
       </c>
     </row>
@@ -2248,7 +2323,7 @@
       <c r="E63" s="2">
         <v>1318</v>
       </c>
-      <c r="F63" s="5">
+      <c r="F63" s="4">
         <v>1.16178359</v>
       </c>
     </row>
@@ -2268,7 +2343,7 @@
       <c r="E64" s="2">
         <v>1511</v>
       </c>
-      <c r="F64" s="5">
+      <c r="F64" s="4">
         <v>0.71475843999999999</v>
       </c>
     </row>
@@ -2288,7 +2363,7 @@
       <c r="E65" s="2">
         <v>1355</v>
       </c>
-      <c r="F65" s="5">
+      <c r="F65" s="4">
         <v>0.64236161999999997</v>
       </c>
     </row>
@@ -2308,7 +2383,7 @@
       <c r="E66" s="2">
         <v>1685</v>
       </c>
-      <c r="F66" s="5">
+      <c r="F66" s="4">
         <v>0.95905045</v>
       </c>
     </row>
@@ -2328,7 +2403,7 @@
       <c r="E67" s="2">
         <v>1472</v>
       </c>
-      <c r="F67" s="5">
+      <c r="F67" s="4">
         <v>0.71739129999999995</v>
       </c>
     </row>
@@ -2348,7 +2423,7 @@
       <c r="E68" s="2">
         <v>1387</v>
       </c>
-      <c r="F68" s="5">
+      <c r="F68" s="4">
         <v>0.18745493999999999</v>
       </c>
     </row>
@@ -2368,7 +2443,7 @@
       <c r="E69" s="2">
         <v>1507</v>
       </c>
-      <c r="F69" s="5">
+      <c r="F69" s="4">
         <v>0.72174298000000003</v>
       </c>
     </row>
@@ -2388,7 +2463,7 @@
       <c r="E70" s="2">
         <v>1467</v>
       </c>
-      <c r="F70" s="5">
+      <c r="F70" s="4">
         <v>0.40337423</v>
       </c>
     </row>
@@ -2408,7 +2483,7 @@
       <c r="E71" s="2">
         <v>1616</v>
       </c>
-      <c r="F71" s="5">
+      <c r="F71" s="4">
         <v>0.62544200999999999</v>
       </c>
     </row>
@@ -2428,7 +2503,7 @@
       <c r="E72" s="2">
         <v>1574</v>
       </c>
-      <c r="F72" s="5">
+      <c r="F72" s="4">
         <v>1.1728081299999999</v>
       </c>
     </row>
@@ -2448,7 +2523,7 @@
       <c r="E73" s="2">
         <v>1529</v>
       </c>
-      <c r="F73" s="5">
+      <c r="F73" s="4">
         <v>1.0265968999999999</v>
       </c>
     </row>
@@ -2468,7 +2543,7 @@
       <c r="E74" s="2">
         <v>1488</v>
       </c>
-      <c r="F74" s="5">
+      <c r="F74" s="4">
         <v>0.60282258</v>
       </c>
     </row>
@@ -2488,7 +2563,7 @@
       <c r="E75" s="2">
         <v>1297</v>
       </c>
-      <c r="F75" s="5">
+      <c r="F75" s="4">
         <v>1.0871241300000001</v>
       </c>
     </row>
@@ -2508,7 +2583,7 @@
       <c r="E76" s="2">
         <v>1512</v>
       </c>
-      <c r="F76" s="5">
+      <c r="F76" s="4">
         <v>1.00396825</v>
       </c>
     </row>
@@ -2528,7 +2603,7 @@
       <c r="E77" s="2">
         <v>1361</v>
       </c>
-      <c r="F77" s="5">
+      <c r="F77" s="4">
         <v>0.86333578</v>
       </c>
     </row>
@@ -2548,7 +2623,7 @@
       <c r="E78" s="2">
         <v>1453</v>
       </c>
-      <c r="F78" s="5">
+      <c r="F78" s="4">
         <v>1.3472126600000001</v>
       </c>
     </row>
@@ -2568,7 +2643,7 @@
       <c r="E79" s="2">
         <v>1465</v>
       </c>
-      <c r="F79" s="5">
+      <c r="F79" s="4">
         <v>0.92098975999999999</v>
       </c>
     </row>
@@ -2588,7 +2663,7 @@
       <c r="E80" s="2">
         <v>1296</v>
       </c>
-      <c r="F80" s="5">
+      <c r="F80" s="4">
         <v>0.95061728000000001</v>
       </c>
     </row>
@@ -2608,7 +2683,7 @@
       <c r="E81" s="2">
         <v>1553</v>
       </c>
-      <c r="F81" s="5">
+      <c r="F81" s="4">
         <v>1.2350289800000001</v>
       </c>
     </row>
@@ -2628,7 +2703,7 @@
       <c r="E82" s="2">
         <v>1299</v>
       </c>
-      <c r="F82" s="5">
+      <c r="F82" s="4">
         <v>0.42930458999999999</v>
       </c>
     </row>
@@ -2648,7 +2723,7 @@
       <c r="E83" s="2">
         <v>1400</v>
       </c>
-      <c r="F83" s="5">
+      <c r="F83" s="4">
         <v>0.62857143000000004</v>
       </c>
     </row>
@@ -2668,7 +2743,7 @@
       <c r="E84" s="2">
         <v>1431</v>
       </c>
-      <c r="F84" s="5">
+      <c r="F84" s="4">
         <v>0.77428372000000001</v>
       </c>
     </row>
@@ -2688,7 +2763,7 @@
       <c r="E85" s="2">
         <v>1345</v>
       </c>
-      <c r="F85" s="5">
+      <c r="F85" s="4">
         <v>1.00975836</v>
       </c>
     </row>
@@ -2708,7 +2783,7 @@
       <c r="E86" s="2">
         <v>1358</v>
       </c>
-      <c r="F86" s="5">
+      <c r="F86" s="4">
         <v>1.00988849</v>
       </c>
     </row>
@@ -2728,7 +2803,7 @@
       <c r="E87" s="2">
         <v>1379</v>
       </c>
-      <c r="F87" s="5">
+      <c r="F87" s="4">
         <v>0.95845851000000004</v>
       </c>
     </row>
@@ -2748,7 +2823,7 @@
       <c r="E88" s="2">
         <v>1651</v>
       </c>
-      <c r="F88" s="5">
+      <c r="F88" s="4">
         <v>0.79860690999999995</v>
       </c>
     </row>
@@ -2768,7 +2843,7 @@
       <c r="E89" s="2">
         <v>1693</v>
       </c>
-      <c r="F89" s="5">
+      <c r="F89" s="4">
         <v>1.0003544</v>
       </c>
     </row>
@@ -2788,7 +2863,7 @@
       <c r="E90" s="2">
         <v>1452</v>
       </c>
-      <c r="F90" s="5">
+      <c r="F90" s="4">
         <v>0.78181818000000003</v>
       </c>
     </row>
@@ -2808,7 +2883,7 @@
       <c r="E91" s="2">
         <v>1579</v>
       </c>
-      <c r="F91" s="5">
+      <c r="F91" s="4">
         <v>0.74224193000000005</v>
       </c>
     </row>
@@ -2828,7 +2903,7 @@
       <c r="E92" s="2">
         <v>1478</v>
       </c>
-      <c r="F92" s="5">
+      <c r="F92" s="4">
         <v>1.0314238499999999</v>
       </c>
     </row>
@@ -2848,7 +2923,7 @@
       <c r="E93" s="2">
         <v>1587</v>
       </c>
-      <c r="F93" s="5">
+      <c r="F93" s="4">
         <v>1.0144927500000001</v>
       </c>
     </row>
@@ -2868,7 +2943,7 @@
       <c r="E94" s="2">
         <v>1459</v>
       </c>
-      <c r="F94" s="5">
+      <c r="F94" s="4">
         <v>1.12508568</v>
       </c>
     </row>
@@ -2888,7 +2963,7 @@
       <c r="E95" s="2">
         <v>1651</v>
       </c>
-      <c r="F95" s="5">
+      <c r="F95" s="4">
         <v>1.2125984299999999</v>
       </c>
     </row>
@@ -2908,7 +2983,7 @@
       <c r="E96" s="2">
         <v>1564</v>
       </c>
-      <c r="F96" s="5">
+      <c r="F96" s="4">
         <v>0.41922420999999999</v>
       </c>
     </row>
@@ -2928,7 +3003,7 @@
       <c r="E97" s="2">
         <v>1543</v>
       </c>
-      <c r="F97" s="5">
+      <c r="F97" s="4">
         <v>0.97852050999999995</v>
       </c>
     </row>
@@ -2948,7 +3023,7 @@
       <c r="E98" s="2">
         <v>1273</v>
       </c>
-      <c r="F98" s="5">
+      <c r="F98" s="4">
         <v>1.1168499599999999</v>
       </c>
     </row>
@@ -2968,7 +3043,7 @@
       <c r="E99" s="2">
         <v>1617</v>
       </c>
-      <c r="F99" s="5">
+      <c r="F99" s="4">
         <v>1.0500927600000001</v>
       </c>
     </row>
@@ -2988,7 +3063,7 @@
       <c r="E100" s="2">
         <v>1458</v>
       </c>
-      <c r="F100" s="5">
+      <c r="F100" s="4">
         <v>0.37311385000000002</v>
       </c>
     </row>
@@ -3008,7 +3083,7 @@
       <c r="E101" s="2">
         <v>1486</v>
       </c>
-      <c r="F101" s="5">
+      <c r="F101" s="4">
         <v>1.2646029599999999</v>
       </c>
     </row>
@@ -3028,7 +3103,7 @@
       <c r="E102" s="2">
         <v>1401</v>
       </c>
-      <c r="F102" s="5">
+      <c r="F102" s="4">
         <v>0.86117058999999996</v>
       </c>
     </row>
@@ -3048,7 +3123,7 @@
       <c r="E103" s="2">
         <v>1559</v>
       </c>
-      <c r="F103" s="5">
+      <c r="F103" s="4">
         <v>0.86497754999999998</v>
       </c>
     </row>
@@ -3068,7 +3143,7 @@
       <c r="E104" s="2">
         <v>1612</v>
       </c>
-      <c r="F104" s="5">
+      <c r="F104" s="4">
         <v>0.89350702999999998</v>
       </c>
     </row>
@@ -3088,7 +3163,7 @@
       <c r="E105" s="2">
         <v>1339</v>
       </c>
-      <c r="F105" s="5">
+      <c r="F105" s="4">
         <v>1.08439134</v>
       </c>
     </row>
@@ -3108,7 +3183,7 @@
       <c r="E106" s="2">
         <v>1558</v>
       </c>
-      <c r="F106" s="5">
+      <c r="F106" s="4">
         <v>1.64056483</v>
       </c>
     </row>
@@ -3128,7 +3203,7 @@
       <c r="E107" s="2">
         <v>1448</v>
       </c>
-      <c r="F107" s="5">
+      <c r="F107" s="4">
         <v>1.0732044199999999</v>
       </c>
     </row>
@@ -3148,7 +3223,7 @@
       <c r="E108" s="2">
         <v>1527</v>
       </c>
-      <c r="F108" s="5">
+      <c r="F108" s="4">
         <v>1.1525867700000001</v>
       </c>
     </row>
@@ -3168,7 +3243,7 @@
       <c r="E109" s="2">
         <v>1532</v>
       </c>
-      <c r="F109" s="5">
+      <c r="F109" s="4">
         <v>0.68616188</v>
       </c>
     </row>
@@ -3188,7 +3263,7 @@
       <c r="E110" s="2">
         <v>1428</v>
       </c>
-      <c r="F110" s="5">
+      <c r="F110" s="4">
         <v>0.75393907999999998</v>
       </c>
     </row>
@@ -3208,7 +3283,7 @@
       <c r="E111" s="2">
         <v>1593</v>
       </c>
-      <c r="F111" s="5">
+      <c r="F111" s="4">
         <v>1.2354049</v>
       </c>
     </row>
@@ -3228,7 +3303,7 @@
       <c r="E112" s="2">
         <v>1358</v>
       </c>
-      <c r="F112" s="5">
+      <c r="F112" s="4">
         <v>0.98217968</v>
       </c>
     </row>
@@ -3248,7 +3323,7 @@
       <c r="E113" s="2">
         <v>1438</v>
       </c>
-      <c r="F113" s="5">
+      <c r="F113" s="4">
         <v>0.70931849999999996</v>
       </c>
     </row>
@@ -3268,7 +3343,7 @@
       <c r="E114" s="2">
         <v>1686</v>
       </c>
-      <c r="F114" s="5">
+      <c r="F114" s="4">
         <v>0.91230299999999998</v>
       </c>
     </row>
@@ -3288,7 +3363,7 @@
       <c r="E115" s="2">
         <v>1347</v>
       </c>
-      <c r="F115" s="5">
+      <c r="F115" s="4">
         <v>0.97401632999999999</v>
       </c>
     </row>
@@ -3308,7 +3383,7 @@
       <c r="E116" s="2">
         <v>1407</v>
       </c>
-      <c r="F116" s="5">
+      <c r="F116" s="4">
         <v>1.00071073</v>
       </c>
     </row>
@@ -3328,7 +3403,7 @@
       <c r="E117" s="2">
         <v>1501</v>
       </c>
-      <c r="F117" s="5">
+      <c r="F117" s="4">
         <v>0.53764157000000001</v>
       </c>
     </row>
@@ -3348,7 +3423,7 @@
       <c r="E118" s="2">
         <v>1681</v>
       </c>
-      <c r="F118" s="5">
+      <c r="F118" s="4">
         <v>0.78435454999999998</v>
       </c>
     </row>
@@ -3368,7 +3443,7 @@
       <c r="E119" s="2">
         <v>1411</v>
       </c>
-      <c r="F119" s="5">
+      <c r="F119" s="4">
         <v>1.13536499</v>
       </c>
     </row>
@@ -3388,7 +3463,7 @@
       <c r="E120" s="2">
         <v>1436</v>
       </c>
-      <c r="F120" s="5">
+      <c r="F120" s="4">
         <v>1.09233983</v>
       </c>
     </row>
@@ -3408,7 +3483,7 @@
       <c r="E121" s="2">
         <v>1327</v>
       </c>
-      <c r="F121" s="5">
+      <c r="F121" s="4">
         <v>1.0797957</v>
       </c>
     </row>
@@ -3428,7 +3503,7 @@
       <c r="E122" s="2">
         <v>1475</v>
       </c>
-      <c r="F122" s="5">
+      <c r="F122" s="4">
         <v>0.89203390000000005</v>
       </c>
     </row>
@@ -3448,7 +3523,7 @@
       <c r="E123" s="2">
         <v>1278</v>
       </c>
-      <c r="F123" s="5">
+      <c r="F123" s="4">
         <v>0.63849765000000003</v>
       </c>
     </row>
@@ -3468,7 +3543,7 @@
       <c r="E124" s="2">
         <v>1340</v>
       </c>
-      <c r="F124" s="5">
+      <c r="F124" s="4">
         <v>1.05130597</v>
       </c>
     </row>
@@ -3488,7 +3563,7 @@
       <c r="E125" s="2">
         <v>1314</v>
       </c>
-      <c r="F125" s="5">
+      <c r="F125" s="4">
         <v>1.34212752</v>
       </c>
     </row>
@@ -3508,7 +3583,7 @@
       <c r="E126" s="2">
         <v>1497</v>
       </c>
-      <c r="F126" s="5">
+      <c r="F126" s="4">
         <v>1.2051603200000001</v>
       </c>
     </row>
@@ -3528,7 +3603,7 @@
       <c r="E127" s="2">
         <v>1371</v>
       </c>
-      <c r="F127" s="5">
+      <c r="F127" s="4">
         <v>1.16703136</v>
       </c>
     </row>
@@ -3548,7 +3623,7 @@
       <c r="E128" s="2">
         <v>1153</v>
       </c>
-      <c r="F128" s="5">
+      <c r="F128" s="4">
         <v>0.57787138999999998</v>
       </c>
     </row>
@@ -3568,7 +3643,7 @@
       <c r="E129" s="2">
         <v>1438</v>
       </c>
-      <c r="F129" s="5">
+      <c r="F129" s="4">
         <v>1.0544506300000001</v>
       </c>
     </row>
@@ -3588,7 +3663,7 @@
       <c r="E130" s="2">
         <v>1574</v>
       </c>
-      <c r="F130" s="5">
+      <c r="F130" s="4">
         <v>0.82998729000000004</v>
       </c>
     </row>
@@ -3608,7 +3683,7 @@
       <c r="E131" s="2">
         <v>1353</v>
       </c>
-      <c r="F131" s="5">
+      <c r="F131" s="4">
         <v>0.37989653000000001</v>
       </c>
     </row>
@@ -3628,7 +3703,7 @@
       <c r="E132" s="2">
         <v>1482</v>
       </c>
-      <c r="F132" s="5">
+      <c r="F132" s="4">
         <v>1.7004048599999999</v>
       </c>
     </row>
@@ -3648,7 +3723,7 @@
       <c r="E133" s="2">
         <v>1269</v>
       </c>
-      <c r="F133" s="5">
+      <c r="F133" s="4">
         <v>0.71964600000000001</v>
       </c>
     </row>
@@ -3668,7 +3743,7 @@
       <c r="E134" s="2">
         <v>1670</v>
       </c>
-      <c r="F134" s="5">
+      <c r="F134" s="4">
         <v>0.84071856</v>
       </c>
     </row>
@@ -3688,7 +3763,7 @@
       <c r="E135" s="2">
         <v>1538</v>
       </c>
-      <c r="F135" s="5">
+      <c r="F135" s="4">
         <v>0.77535761000000003</v>
       </c>
     </row>
@@ -3708,7 +3783,7 @@
       <c r="E136" s="2">
         <v>1576</v>
       </c>
-      <c r="F136" s="5">
+      <c r="F136" s="4">
         <v>1.0050761399999999</v>
       </c>
     </row>
@@ -3728,7 +3803,7 @@
       <c r="E137" s="2">
         <v>1449</v>
       </c>
-      <c r="F137" s="5">
+      <c r="F137" s="4">
         <v>1.0931677</v>
       </c>
     </row>
@@ -3748,7 +3823,7 @@
       <c r="E138" s="2">
         <v>1474</v>
       </c>
-      <c r="F138" s="5">
+      <c r="F138" s="4">
         <v>0.64676617000000003</v>
       </c>
     </row>
@@ -3768,7 +3843,7 @@
       <c r="E139" s="2">
         <v>1479</v>
       </c>
-      <c r="F139" s="5">
+      <c r="F139" s="4">
         <v>0.92630155999999997</v>
       </c>
     </row>
@@ -3788,7 +3863,7 @@
       <c r="E140" s="2">
         <v>1489</v>
       </c>
-      <c r="F140" s="5">
+      <c r="F140" s="4">
         <v>0.81972560999999999</v>
       </c>
     </row>
@@ -3808,7 +3883,7 @@
       <c r="E141" s="2">
         <v>1434</v>
       </c>
-      <c r="F141" s="5">
+      <c r="F141" s="4">
         <v>0.99947699000000001</v>
       </c>
     </row>
@@ -3828,7 +3903,7 @@
       <c r="E142" s="2">
         <v>1309</v>
       </c>
-      <c r="F142" s="5">
+      <c r="F142" s="4">
         <v>1.2834224599999999</v>
       </c>
     </row>
@@ -3848,7 +3923,7 @@
       <c r="E143" s="2">
         <v>1418</v>
       </c>
-      <c r="F143" s="5">
+      <c r="F143" s="4">
         <v>0.98554302000000005</v>
       </c>
     </row>
@@ -3868,7 +3943,7 @@
       <c r="E144" s="2">
         <v>1404</v>
       </c>
-      <c r="F144" s="5">
+      <c r="F144" s="4">
         <v>0.18304843000000001</v>
       </c>
     </row>
@@ -3888,7 +3963,7 @@
       <c r="E145" s="2">
         <v>1372</v>
       </c>
-      <c r="F145" s="5">
+      <c r="F145" s="4">
         <v>1.0534499500000001</v>
       </c>
     </row>
@@ -3908,7 +3983,7 @@
       <c r="E146" s="2">
         <v>1566</v>
       </c>
-      <c r="F146" s="5">
+      <c r="F146" s="4">
         <v>0.91187739000000001</v>
       </c>
     </row>
@@ -3928,7 +4003,7 @@
       <c r="E147" s="2">
         <v>1689</v>
       </c>
-      <c r="F147" s="5">
+      <c r="F147" s="4">
         <v>1.4209591500000001</v>
       </c>
     </row>
@@ -3948,7 +4023,7 @@
       <c r="E148" s="2">
         <v>1449</v>
       </c>
-      <c r="F148" s="5">
+      <c r="F148" s="4">
         <v>0.87482336000000005</v>
       </c>
     </row>
@@ -3968,7 +4043,7 @@
       <c r="E149" s="2">
         <v>1391</v>
       </c>
-      <c r="F149" s="5">
+      <c r="F149" s="4">
         <v>0.86312005999999997</v>
       </c>
     </row>
@@ -3988,7 +4063,7 @@
       <c r="E150" s="2">
         <v>1399</v>
       </c>
-      <c r="F150" s="5">
+      <c r="F150" s="4">
         <v>1.08553729</v>
       </c>
     </row>
@@ -4008,7 +4083,7 @@
       <c r="E151" s="2">
         <v>1429</v>
       </c>
-      <c r="F151" s="5">
+      <c r="F151" s="4">
         <v>0.62211337</v>
       </c>
     </row>
@@ -4028,7 +4103,7 @@
       <c r="E152" s="2">
         <v>1452</v>
       </c>
-      <c r="F152" s="5">
+      <c r="F152" s="4">
         <v>0.56198347000000004</v>
       </c>
     </row>
@@ -4048,7 +4123,7 @@
       <c r="E153" s="2">
         <v>1551</v>
       </c>
-      <c r="F153" s="5">
+      <c r="F153" s="4">
         <v>0.7535461</v>
       </c>
     </row>
@@ -4068,7 +4143,7 @@
       <c r="E154" s="2">
         <v>1448</v>
       </c>
-      <c r="F154" s="5">
+      <c r="F154" s="4">
         <v>1.0869014699999999</v>
       </c>
     </row>
@@ -4088,7 +4163,7 @@
       <c r="E155" s="2">
         <v>1594</v>
       </c>
-      <c r="F155" s="5">
+      <c r="F155" s="4">
         <v>0.66750313999999999</v>
       </c>
     </row>
@@ -4108,7 +4183,7 @@
       <c r="E156" s="2">
         <v>1532</v>
       </c>
-      <c r="F156" s="5">
+      <c r="F156" s="4">
         <v>1.4151435999999999</v>
       </c>
     </row>
@@ -4128,7 +4203,7 @@
       <c r="E157" s="2">
         <v>1416</v>
       </c>
-      <c r="F157" s="5">
+      <c r="F157" s="4">
         <v>0.79741726999999996</v>
       </c>
     </row>
@@ -4148,7 +4223,7 @@
       <c r="E158" s="2">
         <v>1617</v>
       </c>
-      <c r="F158" s="5">
+      <c r="F158" s="4">
         <v>0.71243042999999995</v>
       </c>
     </row>
@@ -4168,7 +4243,7 @@
       <c r="E159" s="2">
         <v>1314</v>
       </c>
-      <c r="F159" s="5">
+      <c r="F159" s="4">
         <v>0.86035008000000002</v>
       </c>
     </row>
@@ -4188,7 +4263,7 @@
       <c r="E160" s="2">
         <v>1383</v>
       </c>
-      <c r="F160" s="5">
+      <c r="F160" s="4">
         <v>1.06290672</v>
       </c>
     </row>
@@ -4208,7 +4283,7 @@
       <c r="E161" s="2">
         <v>1485</v>
       </c>
-      <c r="F161" s="5">
+      <c r="F161" s="4">
         <v>0.96868686999999998</v>
       </c>
     </row>
@@ -4228,7 +4303,7 @@
       <c r="E162" s="2">
         <v>1440</v>
       </c>
-      <c r="F162" s="5">
+      <c r="F162" s="4">
         <v>1.2185185199999999</v>
       </c>
     </row>
@@ -4248,7 +4323,7 @@
       <c r="E163" s="2">
         <v>1314</v>
       </c>
-      <c r="F163" s="5">
+      <c r="F163" s="4">
         <v>0.91158156999999995</v>
       </c>
     </row>
@@ -4268,7 +4343,7 @@
       <c r="E164" s="2">
         <v>1502</v>
       </c>
-      <c r="F164" s="5">
+      <c r="F164" s="4">
         <v>1.2053373300000001</v>
       </c>
     </row>
@@ -4288,7 +4363,7 @@
       <c r="E165" s="2">
         <v>1392</v>
       </c>
-      <c r="F165" s="5">
+      <c r="F165" s="4">
         <v>0.73850574999999996</v>
       </c>
     </row>
@@ -4308,7 +4383,7 @@
       <c r="E166" s="2">
         <v>1672</v>
       </c>
-      <c r="F166" s="5">
+      <c r="F166" s="4">
         <v>1.2001594900000001</v>
       </c>
     </row>
@@ -4328,7 +4403,7 @@
       <c r="E167" s="2">
         <v>1330</v>
       </c>
-      <c r="F167" s="5">
+      <c r="F167" s="4">
         <v>0.97744361000000002</v>
       </c>
     </row>
@@ -4348,7 +4423,7 @@
       <c r="E168" s="2">
         <v>1264</v>
       </c>
-      <c r="F168" s="5">
+      <c r="F168" s="4">
         <v>1.0385680399999999</v>
       </c>
     </row>
@@ -4368,7 +4443,7 @@
       <c r="E169" s="2">
         <v>1766</v>
       </c>
-      <c r="F169" s="5">
+      <c r="F169" s="4">
         <v>1.09917489</v>
       </c>
     </row>
@@ -4388,7 +4463,7 @@
       <c r="E170" s="2">
         <v>1554</v>
       </c>
-      <c r="F170" s="5">
+      <c r="F170" s="4">
         <v>0.66580866999999999</v>
       </c>
     </row>
@@ -4408,7 +4483,7 @@
       <c r="E171" s="2">
         <v>1448</v>
       </c>
-      <c r="F171" s="5">
+      <c r="F171" s="4">
         <v>0.98135359</v>
       </c>
     </row>
@@ -4428,7 +4503,7 @@
       <c r="E172" s="2">
         <v>1427</v>
       </c>
-      <c r="F172" s="5">
+      <c r="F172" s="4">
         <v>1.3195515099999999</v>
       </c>
     </row>
@@ -4448,7 +4523,7 @@
       <c r="E173" s="2">
         <v>1472</v>
       </c>
-      <c r="F173" s="5">
+      <c r="F173" s="4">
         <v>1.0217391300000001</v>
       </c>
     </row>
@@ -4468,7 +4543,7 @@
       <c r="E174" s="2">
         <v>1370</v>
       </c>
-      <c r="F174" s="5">
+      <c r="F174" s="4">
         <v>0.75912409000000003</v>
       </c>
     </row>
@@ -4488,7 +4563,7 @@
       <c r="E175" s="2">
         <v>1344</v>
       </c>
-      <c r="F175" s="5">
+      <c r="F175" s="4">
         <v>0.8125</v>
       </c>
     </row>
@@ -4508,7 +4583,7 @@
       <c r="E176" s="2">
         <v>1531</v>
       </c>
-      <c r="F176" s="5">
+      <c r="F176" s="4">
         <v>1.2984977099999999</v>
       </c>
     </row>
@@ -4528,7 +4603,7 @@
       <c r="E177" s="2">
         <v>1425</v>
       </c>
-      <c r="F177" s="5">
+      <c r="F177" s="4">
         <v>1.0905263199999999</v>
       </c>
     </row>
@@ -4548,7 +4623,7 @@
       <c r="E178" s="2">
         <v>1432</v>
       </c>
-      <c r="F178" s="5">
+      <c r="F178" s="4">
         <v>0.93226257000000001</v>
       </c>
     </row>
@@ -4568,7 +4643,7 @@
       <c r="E179" s="2">
         <v>1275</v>
       </c>
-      <c r="F179" s="5">
+      <c r="F179" s="4">
         <v>1.08705882</v>
       </c>
     </row>
@@ -4588,7 +4663,7 @@
       <c r="E180" s="2">
         <v>1556</v>
       </c>
-      <c r="F180" s="5">
+      <c r="F180" s="4">
         <v>1.11898641</v>
       </c>
     </row>
@@ -4608,7 +4683,7 @@
       <c r="E181" s="2">
         <v>1497</v>
       </c>
-      <c r="F181" s="5">
+      <c r="F181" s="4">
         <v>1.2859051399999999</v>
       </c>
     </row>
@@ -4628,7 +4703,7 @@
       <c r="E182" s="2">
         <v>1313</v>
       </c>
-      <c r="F182" s="5">
+      <c r="F182" s="4">
         <v>1.0749646399999999</v>
       </c>
     </row>
@@ -4648,7 +4723,7 @@
       <c r="E183" s="2">
         <v>1231</v>
       </c>
-      <c r="F183" s="5">
+      <c r="F183" s="4">
         <v>1.03208773</v>
       </c>
     </row>
@@ -4668,7 +4743,7 @@
       <c r="E184" s="2">
         <v>1566</v>
       </c>
-      <c r="F184" s="5">
+      <c r="F184" s="4">
         <v>1.53585112</v>
       </c>
     </row>
@@ -4688,7 +4763,7 @@
       <c r="E185" s="2">
         <v>1556</v>
       </c>
-      <c r="F185" s="5">
+      <c r="F185" s="4">
         <v>0.85775493000000003</v>
       </c>
     </row>
@@ -4708,7 +4783,7 @@
       <c r="E186" s="2">
         <v>1579</v>
       </c>
-      <c r="F186" s="5">
+      <c r="F186" s="4">
         <v>0.93058898000000001</v>
       </c>
     </row>
@@ -4728,7 +4803,7 @@
       <c r="E187" s="2">
         <v>1272</v>
       </c>
-      <c r="F187" s="5">
+      <c r="F187" s="4">
         <v>0.91219536000000001</v>
       </c>
     </row>
@@ -4748,7 +4823,7 @@
       <c r="E188" s="2">
         <v>1411</v>
       </c>
-      <c r="F188" s="5">
+      <c r="F188" s="4">
         <v>1.22002448</v>
       </c>
     </row>
@@ -4768,7 +4843,7 @@
       <c r="E189" s="2">
         <v>1384</v>
       </c>
-      <c r="F189" s="5">
+      <c r="F189" s="4">
         <v>0.95375723000000001</v>
       </c>
     </row>
@@ -4788,7 +4863,7 @@
       <c r="E190" s="2">
         <v>1463</v>
       </c>
-      <c r="F190" s="5">
+      <c r="F190" s="4">
         <v>0.92030075</v>
       </c>
     </row>
@@ -4808,7 +4883,7 @@
       <c r="E191" s="2">
         <v>1434</v>
       </c>
-      <c r="F191" s="5">
+      <c r="F191" s="4">
         <v>1.1129707099999999</v>
       </c>
     </row>
@@ -4828,7 +4903,7 @@
       <c r="E192" s="2">
         <v>1376</v>
       </c>
-      <c r="F192" s="5">
+      <c r="F192" s="4">
         <v>0.90116278999999999</v>
       </c>
     </row>
@@ -4848,7 +4923,7 @@
       <c r="E193" s="2">
         <v>1363</v>
       </c>
-      <c r="F193" s="5">
+      <c r="F193" s="4">
         <v>1.01345072</v>
       </c>
     </row>
@@ -4868,7 +4943,7 @@
       <c r="E194" s="2">
         <v>1497</v>
       </c>
-      <c r="F194" s="5">
+      <c r="F194" s="4">
         <v>1.4375417500000001</v>
       </c>
     </row>
@@ -4888,7 +4963,7 @@
       <c r="E195" s="2">
         <v>1616</v>
       </c>
-      <c r="F195" s="5">
+      <c r="F195" s="4">
         <v>1.09158416</v>
       </c>
     </row>
@@ -4908,7 +4983,7 @@
       <c r="E196" s="2">
         <v>1437</v>
       </c>
-      <c r="F196" s="5">
+      <c r="F196" s="4">
         <v>0.18580376000000001</v>
       </c>
     </row>
@@ -4928,7 +5003,7 @@
       <c r="E197" s="2">
         <v>1396</v>
       </c>
-      <c r="F197" s="5">
+      <c r="F197" s="4">
         <v>0.86676218000000005</v>
       </c>
     </row>
@@ -4948,7 +5023,7 @@
       <c r="E198" s="2">
         <v>1396</v>
       </c>
-      <c r="F198" s="5">
+      <c r="F198" s="4">
         <v>1.3237822400000001</v>
       </c>
     </row>
@@ -4968,7 +5043,7 @@
       <c r="E199" s="2">
         <v>1520</v>
       </c>
-      <c r="F199" s="5">
+      <c r="F199" s="4">
         <v>0.44407894999999997</v>
       </c>
     </row>
@@ -4988,7 +5063,7 @@
       <c r="E200" s="2">
         <v>1348</v>
       </c>
-      <c r="F200" s="5">
+      <c r="F200" s="4">
         <v>1.02818991</v>
       </c>
     </row>
@@ -5008,7 +5083,7 @@
       <c r="E201" s="2">
         <v>1326</v>
       </c>
-      <c r="F201" s="5">
+      <c r="F201" s="4">
         <v>0.84407993999999997</v>
       </c>
     </row>
@@ -5028,7 +5103,7 @@
       <c r="E202" s="2">
         <v>1428</v>
       </c>
-      <c r="F202" s="5">
+      <c r="F202" s="4">
         <v>0.97837370000000001</v>
       </c>
     </row>
@@ -5048,7 +5123,7 @@
       <c r="E203" s="2">
         <v>1365</v>
       </c>
-      <c r="F203" s="5">
+      <c r="F203" s="4">
         <v>0.92427572000000002</v>
       </c>
     </row>
@@ -5068,7 +5143,7 @@
       <c r="E204" s="2">
         <v>1624</v>
       </c>
-      <c r="F204" s="5">
+      <c r="F204" s="4">
         <v>0.73152709000000005</v>
       </c>
     </row>
@@ -5088,7 +5163,7 @@
       <c r="E205" s="2">
         <v>1559</v>
       </c>
-      <c r="F205" s="5">
+      <c r="F205" s="4">
         <v>0.83207184000000001</v>
       </c>
     </row>
@@ -5108,7 +5183,7 @@
       <c r="E206" s="2">
         <v>1497</v>
       </c>
-      <c r="F206" s="5">
+      <c r="F206" s="4">
         <v>1.3297261199999999</v>
       </c>
     </row>
@@ -5128,7 +5203,7 @@
       <c r="E207" s="2">
         <v>1452</v>
       </c>
-      <c r="F207" s="5">
+      <c r="F207" s="4">
         <v>1.1616161599999999</v>
       </c>
     </row>
@@ -5148,7 +5223,7 @@
       <c r="E208" s="2">
         <v>1312</v>
       </c>
-      <c r="F208" s="5">
+      <c r="F208" s="4">
         <v>1.04039634</v>
       </c>
     </row>
@@ -5168,7 +5243,7 @@
       <c r="E209" s="2">
         <v>1353</v>
       </c>
-      <c r="F209" s="5">
+      <c r="F209" s="4">
         <v>1.0987224200000001</v>
       </c>
     </row>
@@ -5188,7 +5263,7 @@
       <c r="E210" s="2">
         <v>1419</v>
       </c>
-      <c r="F210" s="5">
+      <c r="F210" s="4">
         <v>0.75775194000000001</v>
       </c>
     </row>
@@ -5208,7 +5283,7 @@
       <c r="E211" s="2">
         <v>1466</v>
       </c>
-      <c r="F211" s="5">
+      <c r="F211" s="4">
         <v>0.96333561000000001</v>
       </c>
     </row>
@@ -5228,7 +5303,7 @@
       <c r="E212" s="2">
         <v>1402</v>
       </c>
-      <c r="F212" s="5">
+      <c r="F212" s="4">
         <v>1.05518902</v>
       </c>
     </row>
@@ -5248,7 +5323,7 @@
       <c r="E213" s="2">
         <v>1492</v>
       </c>
-      <c r="F213" s="5">
+      <c r="F213" s="4">
         <v>1.54530831</v>
       </c>
     </row>
@@ -5268,7 +5343,7 @@
       <c r="E214" s="2">
         <v>1356</v>
       </c>
-      <c r="F214" s="5">
+      <c r="F214" s="4">
         <v>0.94354309999999997</v>
       </c>
     </row>
@@ -5288,7 +5363,7 @@
       <c r="E215" s="2">
         <v>1328</v>
       </c>
-      <c r="F215" s="5">
+      <c r="F215" s="4">
         <v>0.58283132999999998</v>
       </c>
     </row>
@@ -5308,7 +5383,7 @@
       <c r="E216" s="2">
         <v>1444</v>
       </c>
-      <c r="F216" s="5">
+      <c r="F216" s="4">
         <v>1.3219232299999999</v>
       </c>
     </row>
@@ -5328,7 +5403,7 @@
       <c r="E217" s="2">
         <v>1611</v>
       </c>
-      <c r="F217" s="5">
+      <c r="F217" s="4">
         <v>1.10614525</v>
       </c>
     </row>
@@ -5348,7 +5423,7 @@
       <c r="E218" s="2">
         <v>1519</v>
       </c>
-      <c r="F218" s="5">
+      <c r="F218" s="4">
         <v>0.83870968000000001</v>
       </c>
     </row>
@@ -5368,7 +5443,7 @@
       <c r="E219" s="2">
         <v>1377</v>
       </c>
-      <c r="F219" s="5">
+      <c r="F219" s="4">
         <v>1.2352941200000001</v>
       </c>
     </row>
@@ -5388,7 +5463,7 @@
       <c r="E220" s="2">
         <v>1609</v>
       </c>
-      <c r="F220" s="5">
+      <c r="F220" s="4">
         <v>1.29645743</v>
       </c>
     </row>
@@ -5408,7 +5483,7 @@
       <c r="E221" s="2">
         <v>1532</v>
       </c>
-      <c r="F221" s="5">
+      <c r="F221" s="4">
         <v>1.1064621400000001</v>
       </c>
     </row>
@@ -5428,7 +5503,7 @@
       <c r="E222" s="2">
         <v>1495</v>
       </c>
-      <c r="F222" s="5">
+      <c r="F222" s="4">
         <v>1.2314381299999999</v>
       </c>
     </row>
@@ -5448,7 +5523,7 @@
       <c r="E223" s="2">
         <v>1287</v>
       </c>
-      <c r="F223" s="5">
+      <c r="F223" s="4">
         <v>1.0357420399999999</v>
       </c>
     </row>
@@ -5468,7 +5543,7 @@
       <c r="E224" s="2">
         <v>1537</v>
       </c>
-      <c r="F224" s="5">
+      <c r="F224" s="4">
         <v>1.1082814400000001</v>
       </c>
     </row>
@@ -5488,7 +5563,7 @@
       <c r="E225" s="2">
         <v>1525</v>
       </c>
-      <c r="F225" s="5">
+      <c r="F225" s="4">
         <v>1.28891803</v>
       </c>
     </row>
@@ -5508,7 +5583,7 @@
       <c r="E226" s="2">
         <v>1234</v>
       </c>
-      <c r="F226" s="5">
+      <c r="F226" s="4">
         <v>1.67017828</v>
       </c>
     </row>
@@ -5528,7 +5603,7 @@
       <c r="E227" s="2">
         <v>1497</v>
       </c>
-      <c r="F227" s="5">
+      <c r="F227" s="4">
         <v>1.04091516</v>
       </c>
     </row>
@@ -5548,7 +5623,7 @@
       <c r="E228" s="2">
         <v>1412</v>
       </c>
-      <c r="F228" s="5">
+      <c r="F228" s="4">
         <v>0.77004793999999999</v>
       </c>
     </row>
@@ -5568,7 +5643,7 @@
       <c r="E229" s="2">
         <v>1482</v>
       </c>
-      <c r="F229" s="5">
+      <c r="F229" s="4">
         <v>1.64574899</v>
       </c>
     </row>
@@ -5588,7 +5663,7 @@
       <c r="E230" s="2">
         <v>1484</v>
       </c>
-      <c r="F230" s="5">
+      <c r="F230" s="4">
         <v>0.93665768000000005</v>
       </c>
     </row>
@@ -5608,7 +5683,7 @@
       <c r="E231" s="2">
         <v>1495</v>
       </c>
-      <c r="F231" s="5">
+      <c r="F231" s="4">
         <v>0.18060201000000001</v>
       </c>
     </row>
@@ -5628,7 +5703,7 @@
       <c r="E232" s="2">
         <v>1311</v>
       </c>
-      <c r="F232" s="5">
+      <c r="F232" s="4">
         <v>0.90876018999999997</v>
       </c>
     </row>
@@ -5648,7 +5723,7 @@
       <c r="E233" s="2">
         <v>1545</v>
       </c>
-      <c r="F233" s="5">
+      <c r="F233" s="4">
         <v>1.63106796</v>
       </c>
     </row>
@@ -5668,7 +5743,7 @@
       <c r="E234" s="2">
         <v>1134</v>
       </c>
-      <c r="F234" s="5">
+      <c r="F234" s="4">
         <v>1.1560846600000001</v>
       </c>
     </row>
@@ -5688,7 +5763,7 @@
       <c r="E235" s="2">
         <v>1323</v>
       </c>
-      <c r="F235" s="5">
+      <c r="F235" s="4">
         <v>0.85519922000000004</v>
       </c>
     </row>
@@ -5708,7 +5783,7 @@
       <c r="E236" s="2">
         <v>1583</v>
       </c>
-      <c r="F236" s="5">
+      <c r="F236" s="4">
         <v>0.34491472000000001</v>
       </c>
     </row>
@@ -5728,7 +5803,7 @@
       <c r="E237" s="2">
         <v>1522</v>
       </c>
-      <c r="F237" s="5">
+      <c r="F237" s="4">
         <v>1.02003942</v>
       </c>
     </row>
@@ -5748,7 +5823,7 @@
       <c r="E238" s="2">
         <v>1552</v>
       </c>
-      <c r="F238" s="5">
+      <c r="F238" s="4">
         <v>1.5567010299999999</v>
       </c>
     </row>
@@ -5768,7 +5843,7 @@
       <c r="E239" s="2">
         <v>1493</v>
       </c>
-      <c r="F239" s="5">
+      <c r="F239" s="4">
         <v>1.0389819199999999</v>
       </c>
     </row>
@@ -5788,7 +5863,7 @@
       <c r="E240" s="2">
         <v>1241</v>
       </c>
-      <c r="F240" s="5">
+      <c r="F240" s="4">
         <v>0.93473006000000003</v>
       </c>
     </row>
@@ -5808,7 +5883,7 @@
       <c r="E241" s="2">
         <v>1414</v>
       </c>
-      <c r="F241" s="5">
+      <c r="F241" s="4">
         <v>1.2182461099999999</v>
       </c>
     </row>
@@ -5828,7 +5903,7 @@
       <c r="E242" s="2">
         <v>1579</v>
       </c>
-      <c r="F242" s="5">
+      <c r="F242" s="4">
         <v>0.90785307000000004</v>
       </c>
     </row>
@@ -5848,7 +5923,7 @@
       <c r="E243" s="2">
         <v>1625</v>
       </c>
-      <c r="F243" s="5">
+      <c r="F243" s="4">
         <v>1.00146154</v>
       </c>
     </row>
@@ -5868,7 +5943,7 @@
       <c r="E244" s="2">
         <v>1377</v>
       </c>
-      <c r="F244" s="5">
+      <c r="F244" s="4">
         <v>1.0168240099999999</v>
       </c>
     </row>
@@ -5888,7 +5963,7 @@
       <c r="E245" s="2">
         <v>1472</v>
       </c>
-      <c r="F245" s="5">
+      <c r="F245" s="4">
         <v>0.70652174000000001</v>
       </c>
     </row>
@@ -5908,7 +5983,7 @@
       <c r="E246" s="2">
         <v>1392</v>
       </c>
-      <c r="F246" s="5">
+      <c r="F246" s="4">
         <v>1.1370530000000001</v>
       </c>
     </row>
@@ -5928,7 +6003,7 @@
       <c r="E247" s="2">
         <v>1394</v>
       </c>
-      <c r="F247" s="5">
+      <c r="F247" s="4">
         <v>1.06929699</v>
       </c>
     </row>
@@ -5948,7 +6023,7 @@
       <c r="E248" s="2">
         <v>1546</v>
       </c>
-      <c r="F248" s="5">
+      <c r="F248" s="4">
         <v>0.88615783000000004</v>
       </c>
     </row>
@@ -5968,7 +6043,7 @@
       <c r="E249" s="2">
         <v>1354</v>
       </c>
-      <c r="F249" s="5">
+      <c r="F249" s="4">
         <v>0.97304283999999996</v>
       </c>
     </row>
@@ -5988,7 +6063,7 @@
       <c r="E250" s="2">
         <v>1348</v>
       </c>
-      <c r="F250" s="5">
+      <c r="F250" s="4">
         <v>0.86795252000000001</v>
       </c>
     </row>
@@ -6008,7 +6083,7 @@
       <c r="E251" s="2">
         <v>1378</v>
       </c>
-      <c r="F251" s="5">
+      <c r="F251" s="4">
         <v>1.06676343</v>
       </c>
     </row>
@@ -6028,7 +6103,7 @@
       <c r="E252" s="2">
         <v>1433</v>
       </c>
-      <c r="F252" s="5">
+      <c r="F252" s="4">
         <v>0.69347523</v>
       </c>
     </row>
@@ -6048,7 +6123,7 @@
       <c r="E253" s="2">
         <v>1430</v>
       </c>
-      <c r="F253" s="5">
+      <c r="F253" s="4">
         <v>0.71794871999999998</v>
       </c>
     </row>
@@ -6068,7 +6143,7 @@
       <c r="E254" s="2">
         <v>1454</v>
       </c>
-      <c r="F254" s="5">
+      <c r="F254" s="4">
         <v>0.57928866000000001</v>
       </c>
     </row>
@@ -6088,7 +6163,7 @@
       <c r="E255" s="2">
         <v>1615</v>
       </c>
-      <c r="F255" s="5">
+      <c r="F255" s="4">
         <v>1.28957688</v>
       </c>
     </row>
@@ -6108,7 +6183,7 @@
       <c r="E256" s="2">
         <v>1362</v>
       </c>
-      <c r="F256" s="5">
+      <c r="F256" s="4">
         <v>0.65271659000000004</v>
       </c>
     </row>
@@ -6128,7 +6203,7 @@
       <c r="E257" s="2">
         <v>1403</v>
       </c>
-      <c r="F257" s="5">
+      <c r="F257" s="4">
         <v>1.01382751</v>
       </c>
     </row>
@@ -6148,7 +6223,7 @@
       <c r="E258" s="2">
         <v>1482</v>
       </c>
-      <c r="F258" s="5">
+      <c r="F258" s="4">
         <v>0.79210526000000003</v>
       </c>
     </row>
@@ -6168,7 +6243,7 @@
       <c r="E259" s="2">
         <v>1455</v>
       </c>
-      <c r="F259" s="5">
+      <c r="F259" s="4">
         <v>0.71202748999999999</v>
       </c>
     </row>
@@ -6188,7 +6263,7 @@
       <c r="E260" s="2">
         <v>1472</v>
       </c>
-      <c r="F260" s="5">
+      <c r="F260" s="4">
         <v>1.1525135900000001</v>
       </c>
     </row>
@@ -6208,7 +6283,7 @@
       <c r="E261" s="2">
         <v>1312</v>
       </c>
-      <c r="F261" s="5">
+      <c r="F261" s="4">
         <v>1.05386179</v>
       </c>
     </row>
@@ -6228,7 +6303,7 @@
       <c r="E262" s="2">
         <v>1514</v>
       </c>
-      <c r="F262" s="5">
+      <c r="F262" s="4">
         <v>1.20057244</v>
       </c>
     </row>
@@ -6248,7 +6323,7 @@
       <c r="E263" s="2">
         <v>1703</v>
       </c>
-      <c r="F263" s="5">
+      <c r="F263" s="4">
         <v>0.18496770000000001</v>
       </c>
     </row>
@@ -6268,7 +6343,7 @@
       <c r="E264" s="2">
         <v>1489</v>
       </c>
-      <c r="F264" s="5">
+      <c r="F264" s="4">
         <v>1.4848891900000001</v>
       </c>
     </row>
@@ -6288,7 +6363,7 @@
       <c r="E265" s="2">
         <v>1641</v>
       </c>
-      <c r="F265" s="5">
+      <c r="F265" s="4">
         <v>0.88056062999999996</v>
       </c>
     </row>
@@ -6308,7 +6383,7 @@
       <c r="E266" s="2">
         <v>1431</v>
       </c>
-      <c r="F266" s="5">
+      <c r="F266" s="4">
         <v>0.49382715999999999</v>
       </c>
     </row>
@@ -6328,7 +6403,7 @@
       <c r="E267" s="2">
         <v>1460</v>
       </c>
-      <c r="F267" s="5">
+      <c r="F267" s="4">
         <v>1.17281349</v>
       </c>
     </row>
@@ -6348,7 +6423,7 @@
       <c r="E268" s="2">
         <v>1495</v>
       </c>
-      <c r="F268" s="5">
+      <c r="F268" s="4">
         <v>1.30769231</v>
       </c>
     </row>
@@ -6368,7 +6443,7 @@
       <c r="E269" s="2">
         <v>1372</v>
       </c>
-      <c r="F269" s="5">
+      <c r="F269" s="4">
         <v>0.88513120000000001</v>
       </c>
     </row>
@@ -6388,7 +6463,7 @@
       <c r="E270" s="2">
         <v>1562</v>
       </c>
-      <c r="F270" s="5">
+      <c r="F270" s="4">
         <v>0.91848057999999999</v>
       </c>
     </row>
@@ -6408,7 +6483,7 @@
       <c r="E271" s="2">
         <v>1553</v>
       </c>
-      <c r="F271" s="5">
+      <c r="F271" s="4">
         <v>0.85602060999999996</v>
       </c>
     </row>
@@ -6428,7 +6503,7 @@
       <c r="E272" s="2">
         <v>1683</v>
       </c>
-      <c r="F272" s="5">
+      <c r="F272" s="4">
         <v>1.43553179</v>
       </c>
     </row>
@@ -6448,7 +6523,7 @@
       <c r="E273" s="2">
         <v>1361</v>
       </c>
-      <c r="F273" s="5">
+      <c r="F273" s="4">
         <v>0.97729997000000002</v>
       </c>
     </row>
@@ -6468,7 +6543,7 @@
       <c r="E274" s="2">
         <v>1440</v>
       </c>
-      <c r="F274" s="5">
+      <c r="F274" s="4">
         <v>0.99305555999999995</v>
       </c>
     </row>
@@ -6488,7 +6563,7 @@
       <c r="E275" s="2">
         <v>1413</v>
       </c>
-      <c r="F275" s="5">
+      <c r="F275" s="4">
         <v>0.19037509</v>
       </c>
     </row>
@@ -6508,7 +6583,7 @@
       <c r="E276" s="2">
         <v>1510</v>
       </c>
-      <c r="F276" s="5">
+      <c r="F276" s="4">
         <v>1.2309050800000001</v>
       </c>
     </row>
@@ -6528,7 +6603,7 @@
       <c r="E277" s="2">
         <v>1507</v>
       </c>
-      <c r="F277" s="5">
+      <c r="F277" s="4">
         <v>1.7850033199999999</v>
       </c>
     </row>
@@ -6548,7 +6623,7 @@
       <c r="E278" s="2">
         <v>1281</v>
       </c>
-      <c r="F278" s="5">
+      <c r="F278" s="4">
         <v>1.04382737</v>
       </c>
     </row>
@@ -6568,7 +6643,7 @@
       <c r="E279" s="2">
         <v>1287</v>
       </c>
-      <c r="F279" s="5">
+      <c r="F279" s="4">
         <v>1.33799534</v>
       </c>
     </row>
@@ -6588,7 +6663,7 @@
       <c r="E280" s="2">
         <v>1429</v>
       </c>
-      <c r="F280" s="5">
+      <c r="F280" s="4">
         <v>1.00139958</v>
       </c>
     </row>
@@ -6608,7 +6683,7 @@
       <c r="E281" s="2">
         <v>1534</v>
       </c>
-      <c r="F281" s="5">
+      <c r="F281" s="4">
         <v>1.24341591</v>
       </c>
     </row>
@@ -6628,7 +6703,7 @@
       <c r="E282" s="2">
         <v>1429</v>
       </c>
-      <c r="F282" s="5">
+      <c r="F282" s="4">
         <v>1.29321204</v>
       </c>
     </row>
@@ -6648,7 +6723,7 @@
       <c r="E283" s="2">
         <v>1605</v>
       </c>
-      <c r="F283" s="5">
+      <c r="F283" s="4">
         <v>1.0074766399999999</v>
       </c>
     </row>
@@ -6668,7 +6743,7 @@
       <c r="E284" s="2">
         <v>1586</v>
       </c>
-      <c r="F284" s="5">
+      <c r="F284" s="4">
         <v>1.22698613</v>
       </c>
     </row>
@@ -6688,7 +6763,7 @@
       <c r="E285" s="2">
         <v>1570</v>
       </c>
-      <c r="F285" s="5">
+      <c r="F285" s="4">
         <v>1.5707006400000001</v>
       </c>
     </row>
@@ -6708,7 +6783,7 @@
       <c r="E286" s="2">
         <v>1397</v>
       </c>
-      <c r="F286" s="5">
+      <c r="F286" s="4">
         <v>1.1605821999999999</v>
       </c>
     </row>
@@ -6728,7 +6803,7 @@
       <c r="E287" s="2">
         <v>1396</v>
       </c>
-      <c r="F287" s="5">
+      <c r="F287" s="4">
         <v>1.1914040100000001</v>
       </c>
     </row>
@@ -6748,7 +6823,7 @@
       <c r="E288" s="2">
         <v>1542</v>
       </c>
-      <c r="F288" s="5">
+      <c r="F288" s="4">
         <v>1.0716851199999999</v>
       </c>
     </row>
@@ -6768,7 +6843,7 @@
       <c r="E289" s="2">
         <v>1513</v>
       </c>
-      <c r="F289" s="5">
+      <c r="F289" s="4">
         <v>0.96585151000000002</v>
       </c>
     </row>
@@ -6788,7 +6863,7 @@
       <c r="E290" s="2">
         <v>1448</v>
       </c>
-      <c r="F290" s="5">
+      <c r="F290" s="4">
         <v>1.1055248600000001</v>
       </c>
     </row>
@@ -6808,7 +6883,7 @@
       <c r="E291" s="2">
         <v>1454</v>
       </c>
-      <c r="F291" s="5">
+      <c r="F291" s="4">
         <v>0.99367262999999995</v>
       </c>
     </row>
@@ -6828,7 +6903,7 @@
       <c r="E292" s="2">
         <v>1451</v>
       </c>
-      <c r="F292" s="5">
+      <c r="F292" s="4">
         <v>0.93039282999999995</v>
       </c>
     </row>
@@ -6848,7 +6923,7 @@
       <c r="E293" s="2">
         <v>1284</v>
       </c>
-      <c r="F293" s="5">
+      <c r="F293" s="4">
         <v>1.34345794</v>
       </c>
     </row>
@@ -6868,7 +6943,7 @@
       <c r="E294" s="2">
         <v>1556</v>
       </c>
-      <c r="F294" s="5">
+      <c r="F294" s="4">
         <v>0.90589423000000002</v>
       </c>
     </row>
@@ -6888,7 +6963,7 @@
       <c r="E295" s="2">
         <v>1283</v>
       </c>
-      <c r="F295" s="5">
+      <c r="F295" s="4">
         <v>1.1691348399999999</v>
       </c>
     </row>
@@ -6908,7 +6983,7 @@
       <c r="E296" s="2">
         <v>1403</v>
       </c>
-      <c r="F296" s="5">
+      <c r="F296" s="4">
         <v>1.6054882399999999</v>
       </c>
     </row>
@@ -6928,7 +7003,7 @@
       <c r="E297" s="2">
         <v>1413</v>
       </c>
-      <c r="F297" s="5">
+      <c r="F297" s="4">
         <v>1.2328379300000001</v>
       </c>
     </row>
@@ -6948,7 +7023,7 @@
       <c r="E298" s="2">
         <v>1601</v>
       </c>
-      <c r="F298" s="5">
+      <c r="F298" s="4">
         <v>0.51905058999999998</v>
       </c>
     </row>
@@ -6968,7 +7043,7 @@
       <c r="E299" s="2">
         <v>1342</v>
       </c>
-      <c r="F299" s="5">
+      <c r="F299" s="4">
         <v>1.18479881</v>
       </c>
     </row>
@@ -6988,7 +7063,7 @@
       <c r="E300" s="2">
         <v>1527</v>
       </c>
-      <c r="F300" s="5">
+      <c r="F300" s="4">
         <v>1.1450556599999999</v>
       </c>
     </row>
@@ -7008,7 +7083,7 @@
       <c r="E301" s="2">
         <v>1406</v>
       </c>
-      <c r="F301" s="5">
+      <c r="F301" s="4">
         <v>0.80835380999999995</v>
       </c>
     </row>
@@ -7028,7 +7103,7 @@
       <c r="E302" s="2">
         <v>1397</v>
       </c>
-      <c r="F302" s="5">
+      <c r="F302" s="4">
         <v>1.32455261</v>
       </c>
     </row>
@@ -7048,7 +7123,7 @@
       <c r="E303" s="2">
         <v>1370</v>
       </c>
-      <c r="F303" s="5">
+      <c r="F303" s="4">
         <v>1.31551095</v>
       </c>
     </row>
@@ -7068,7 +7143,7 @@
       <c r="E304" s="2">
         <v>1349</v>
       </c>
-      <c r="F304" s="5">
+      <c r="F304" s="4">
         <v>0.54262416999999996</v>
       </c>
     </row>
@@ -7088,7 +7163,7 @@
       <c r="E305" s="2">
         <v>1527</v>
       </c>
-      <c r="F305" s="5">
+      <c r="F305" s="4">
         <v>0.87426325999999999</v>
       </c>
     </row>
@@ -7108,7 +7183,7 @@
       <c r="E306" s="2">
         <v>1707</v>
       </c>
-      <c r="F306" s="5">
+      <c r="F306" s="4">
         <v>1.08963093</v>
       </c>
     </row>
@@ -7128,7 +7203,7 @@
       <c r="E307" s="2">
         <v>1395</v>
       </c>
-      <c r="F307" s="5">
+      <c r="F307" s="4">
         <v>1.04193548</v>
       </c>
     </row>
@@ -7148,7 +7223,7 @@
       <c r="E308" s="2">
         <v>1686</v>
       </c>
-      <c r="F308" s="5">
+      <c r="F308" s="4">
         <v>1.14697509</v>
       </c>
     </row>
@@ -7168,7 +7243,7 @@
       <c r="E309" s="2">
         <v>1355</v>
       </c>
-      <c r="F309" s="5">
+      <c r="F309" s="4">
         <v>0.76250923000000004</v>
       </c>
     </row>
@@ -7188,7 +7263,7 @@
       <c r="E310" s="2">
         <v>1386</v>
       </c>
-      <c r="F310" s="5">
+      <c r="F310" s="4">
         <v>0.65079365</v>
       </c>
     </row>
@@ -7208,7 +7283,7 @@
       <c r="E311" s="2">
         <v>1579</v>
       </c>
-      <c r="F311" s="5">
+      <c r="F311" s="4">
         <v>1.06396453</v>
       </c>
     </row>
@@ -7228,7 +7303,7 @@
       <c r="E312" s="2">
         <v>1386</v>
       </c>
-      <c r="F312" s="5">
+      <c r="F312" s="4">
         <v>1.12409812</v>
       </c>
     </row>
@@ -7248,7 +7323,7 @@
       <c r="E313" s="2">
         <v>1239</v>
       </c>
-      <c r="F313" s="5">
+      <c r="F313" s="4">
         <v>0.71670701999999997</v>
       </c>
     </row>
@@ -7268,7 +7343,7 @@
       <c r="E314" s="2">
         <v>1419</v>
       </c>
-      <c r="F314" s="5">
+      <c r="F314" s="4">
         <v>1.4080338299999999</v>
       </c>
     </row>
@@ -7288,7 +7363,7 @@
       <c r="E315" s="2">
         <v>1376</v>
       </c>
-      <c r="F315" s="5">
+      <c r="F315" s="4">
         <v>0.56031976999999999</v>
       </c>
     </row>
@@ -7308,7 +7383,7 @@
       <c r="E316" s="2">
         <v>1573</v>
       </c>
-      <c r="F316" s="5">
+      <c r="F316" s="4">
         <v>1.0565797800000001</v>
       </c>
     </row>
@@ -7328,7 +7403,7 @@
       <c r="E317" s="2">
         <v>1393</v>
       </c>
-      <c r="F317" s="5">
+      <c r="F317" s="4">
         <v>1.0558917000000001</v>
       </c>
     </row>
@@ -7348,7 +7423,7 @@
       <c r="E318" s="2">
         <v>1318</v>
       </c>
-      <c r="F318" s="5">
+      <c r="F318" s="4">
         <v>1.3201820900000001</v>
       </c>
     </row>
@@ -7368,7 +7443,7 @@
       <c r="E319" s="2">
         <v>1345</v>
       </c>
-      <c r="F319" s="5">
+      <c r="F319" s="4">
         <v>1.0929367999999999</v>
       </c>
     </row>
@@ -7388,7 +7463,7 @@
       <c r="E320" s="2">
         <v>1411</v>
       </c>
-      <c r="F320" s="5">
+      <c r="F320" s="4">
         <v>1.2551382</v>
       </c>
     </row>
@@ -7408,7 +7483,7 @@
       <c r="E321" s="2">
         <v>1442</v>
       </c>
-      <c r="F321" s="5">
+      <c r="F321" s="4">
         <v>0.84216365999999998</v>
       </c>
     </row>
@@ -7428,7 +7503,7 @@
       <c r="E322" s="2">
         <v>1753</v>
       </c>
-      <c r="F322" s="5">
+      <c r="F322" s="4">
         <v>0.98548519999999995</v>
       </c>
     </row>
@@ -7448,7 +7523,7 @@
       <c r="E323" s="2">
         <v>1298</v>
       </c>
-      <c r="F323" s="5">
+      <c r="F323" s="4">
         <v>1.17159266</v>
       </c>
     </row>
@@ -7468,7 +7543,7 @@
       <c r="E324" s="2">
         <v>1260</v>
       </c>
-      <c r="F324" s="5">
+      <c r="F324" s="4">
         <v>1.35</v>
       </c>
     </row>
@@ -7488,7 +7563,7 @@
       <c r="E325" s="2">
         <v>1376</v>
       </c>
-      <c r="F325" s="5">
+      <c r="F325" s="4">
         <v>1.3106104700000001</v>
       </c>
     </row>
@@ -7508,7 +7583,7 @@
       <c r="E326" s="2">
         <v>1188</v>
       </c>
-      <c r="F326" s="5">
+      <c r="F326" s="4">
         <v>1.2905092600000001</v>
       </c>
     </row>
@@ -7528,7 +7603,7 @@
       <c r="E327" s="2">
         <v>1473</v>
       </c>
-      <c r="F327" s="5">
+      <c r="F327" s="4">
         <v>0.43245077999999998</v>
       </c>
     </row>
@@ -7548,7 +7623,7 @@
       <c r="E328" s="2">
         <v>1304</v>
       </c>
-      <c r="F328" s="5">
+      <c r="F328" s="4">
         <v>1.6909509199999999</v>
       </c>
     </row>
@@ -7568,7 +7643,7 @@
       <c r="E329" s="2">
         <v>1589</v>
       </c>
-      <c r="F329" s="5">
+      <c r="F329" s="4">
         <v>0.82794210000000001</v>
       </c>
     </row>
@@ -7588,7 +7663,7 @@
       <c r="E330" s="2">
         <v>1460</v>
       </c>
-      <c r="F330" s="5">
+      <c r="F330" s="4">
         <v>0.99606163999999997</v>
       </c>
     </row>
@@ -7608,7 +7683,7 @@
       <c r="E331" s="2">
         <v>1419</v>
       </c>
-      <c r="F331" s="5">
+      <c r="F331" s="4">
         <v>0.37632135</v>
       </c>
     </row>
@@ -7628,7 +7703,7 @@
       <c r="E332" s="2">
         <v>1364</v>
       </c>
-      <c r="F332" s="5">
+      <c r="F332" s="4">
         <v>1.2983871</v>
       </c>
     </row>
@@ -7648,7 +7723,7 @@
       <c r="E333" s="2">
         <v>1230</v>
       </c>
-      <c r="F333" s="5">
+      <c r="F333" s="4">
         <v>0.95544715000000002</v>
       </c>
     </row>
@@ -7668,7 +7743,7 @@
       <c r="E334" s="2">
         <v>1474</v>
       </c>
-      <c r="F334" s="5">
+      <c r="F334" s="4">
         <v>1.1636363599999999</v>
       </c>
     </row>
@@ -7688,7 +7763,7 @@
       <c r="E335" s="2">
         <v>1278</v>
       </c>
-      <c r="F335" s="5">
+      <c r="F335" s="4">
         <v>1.40125196</v>
       </c>
     </row>
@@ -7708,7 +7783,7 @@
       <c r="E336" s="2">
         <v>1538</v>
       </c>
-      <c r="F336" s="5">
+      <c r="F336" s="4">
         <v>0.3550065</v>
       </c>
     </row>
@@ -7728,7 +7803,7 @@
       <c r="E337" s="2">
         <v>1395</v>
       </c>
-      <c r="F337" s="5">
+      <c r="F337" s="4">
         <v>1.0865591400000001</v>
       </c>
     </row>
@@ -7748,7 +7823,7 @@
       <c r="E338" s="2">
         <v>1381</v>
       </c>
-      <c r="F338" s="5">
+      <c r="F338" s="4">
         <v>1.09847936</v>
       </c>
     </row>
@@ -7768,7 +7843,7 @@
       <c r="E339" s="2">
         <v>1451</v>
       </c>
-      <c r="F339" s="5">
+      <c r="F339" s="4">
         <v>1.30737422</v>
       </c>
     </row>
@@ -7788,7 +7863,7 @@
       <c r="E340" s="2">
         <v>1389</v>
       </c>
-      <c r="F340" s="5">
+      <c r="F340" s="4">
         <v>1.0877129800000001</v>
       </c>
     </row>
@@ -7808,7 +7883,7 @@
       <c r="E341" s="2">
         <v>1381</v>
       </c>
-      <c r="F341" s="5">
+      <c r="F341" s="4">
         <v>0.93772628999999996</v>
       </c>
     </row>
@@ -7828,7 +7903,7 @@
       <c r="E342" s="2">
         <v>1452</v>
       </c>
-      <c r="F342" s="5">
+      <c r="F342" s="4">
         <v>1.35353535</v>
       </c>
     </row>
@@ -7848,7 +7923,7 @@
       <c r="E343" s="2">
         <v>1693</v>
       </c>
-      <c r="F343" s="5">
+      <c r="F343" s="4">
         <v>1.28434731</v>
       </c>
     </row>
@@ -7868,7 +7943,7 @@
       <c r="E344" s="2">
         <v>1443</v>
       </c>
-      <c r="F344" s="5">
+      <c r="F344" s="4">
         <v>0.92862093000000001</v>
       </c>
     </row>
@@ -7888,7 +7963,7 @@
       <c r="E345" s="2">
         <v>1411</v>
       </c>
-      <c r="F345" s="5">
+      <c r="F345" s="4">
         <v>1.25868179</v>
       </c>
     </row>
@@ -7908,7 +7983,7 @@
       <c r="E346" s="2">
         <v>1260</v>
       </c>
-      <c r="F346" s="5">
+      <c r="F346" s="4">
         <v>1.43301587</v>
       </c>
     </row>
@@ -7928,7 +8003,7 @@
       <c r="E347" s="2">
         <v>1424</v>
       </c>
-      <c r="F347" s="5">
+      <c r="F347" s="4">
         <v>0.55828652000000001</v>
       </c>
     </row>
@@ -7948,7 +8023,7 @@
       <c r="E348" s="2">
         <v>1485</v>
       </c>
-      <c r="F348" s="5">
+      <c r="F348" s="4">
         <v>1.3010101000000001</v>
       </c>
     </row>
@@ -7968,7 +8043,7 @@
       <c r="E349" s="2">
         <v>1531</v>
       </c>
-      <c r="F349" s="5">
+      <c r="F349" s="4">
         <v>0.26257348000000003</v>
       </c>
     </row>
@@ -7988,7 +8063,7 @@
       <c r="E350" s="2">
         <v>1360</v>
       </c>
-      <c r="F350" s="5">
+      <c r="F350" s="4">
         <v>1.0833333300000001</v>
       </c>
     </row>
@@ -8008,7 +8083,7 @@
       <c r="E351" s="2">
         <v>1436</v>
       </c>
-      <c r="F351" s="5">
+      <c r="F351" s="4">
         <v>1.10118384</v>
       </c>
     </row>
@@ -8028,7 +8103,7 @@
       <c r="E352" s="2">
         <v>1440</v>
       </c>
-      <c r="F352" s="5">
+      <c r="F352" s="4">
         <v>1.31</v>
       </c>
     </row>
@@ -8048,7 +8123,7 @@
       <c r="E353" s="2">
         <v>1466</v>
       </c>
-      <c r="F353" s="5">
+      <c r="F353" s="4">
         <v>1.0886766699999999</v>
       </c>
     </row>
@@ -8068,7 +8143,7 @@
       <c r="E354" s="2">
         <v>1528</v>
       </c>
-      <c r="F354" s="5">
+      <c r="F354" s="4">
         <v>0.96125654000000005</v>
       </c>
     </row>
@@ -8088,7 +8163,7 @@
       <c r="E355" s="2">
         <v>1437</v>
       </c>
-      <c r="F355" s="5">
+      <c r="F355" s="4">
         <v>0.97629865999999998</v>
       </c>
     </row>
@@ -8108,7 +8183,7 @@
       <c r="E356" s="2">
         <v>1314</v>
       </c>
-      <c r="F356" s="5">
+      <c r="F356" s="4">
         <v>0.98525995</v>
       </c>
     </row>
@@ -8128,7 +8203,7 @@
       <c r="E357" s="2">
         <v>1562</v>
       </c>
-      <c r="F357" s="5">
+      <c r="F357" s="4">
         <v>1.36443662</v>
       </c>
     </row>
@@ -8148,7 +8223,7 @@
       <c r="E358" s="2">
         <v>1431</v>
       </c>
-      <c r="F358" s="5">
+      <c r="F358" s="4">
         <v>0.71159030000000001</v>
       </c>
     </row>
@@ -8168,7 +8243,7 @@
       <c r="E359" s="2">
         <v>1280</v>
       </c>
-      <c r="F359" s="5">
+      <c r="F359" s="4">
         <v>1.03400735</v>
       </c>
     </row>
@@ -8188,7 +8263,7 @@
       <c r="E360" s="2">
         <v>1527</v>
       </c>
-      <c r="F360" s="5">
+      <c r="F360" s="4">
         <v>0.90923379000000004</v>
       </c>
     </row>
@@ -8208,7 +8283,7 @@
       <c r="E361" s="2">
         <v>1403</v>
       </c>
-      <c r="F361" s="5">
+      <c r="F361" s="4">
         <v>0.60923022000000004</v>
       </c>
     </row>
@@ -8228,7 +8303,7 @@
       <c r="E362" s="2">
         <v>1486</v>
       </c>
-      <c r="F362" s="5">
+      <c r="F362" s="4">
         <v>0.86944818000000001</v>
       </c>
     </row>
@@ -8248,7 +8323,7 @@
       <c r="E363" s="2">
         <v>1314</v>
       </c>
-      <c r="F363" s="5">
+      <c r="F363" s="4">
         <v>1.03287671</v>
       </c>
     </row>
@@ -8268,7 +8343,7 @@
       <c r="E364" s="2">
         <v>1462</v>
       </c>
-      <c r="F364" s="5">
+      <c r="F364" s="4">
         <v>1.25490196</v>
       </c>
     </row>
@@ -8288,7 +8363,7 @@
       <c r="E365" s="2">
         <v>1403</v>
       </c>
-      <c r="F365" s="5">
+      <c r="F365" s="4">
         <v>0.81147541000000001</v>
       </c>
     </row>
@@ -8308,7 +8383,7 @@
       <c r="E366" s="2">
         <v>1336</v>
       </c>
-      <c r="F366" s="5">
+      <c r="F366" s="4">
         <v>0.81511975999999997</v>
       </c>
     </row>
@@ -8328,7 +8403,7 @@
       <c r="E367" s="2">
         <v>1691</v>
       </c>
-      <c r="F367" s="5">
+      <c r="F367" s="4">
         <v>1.03404579</v>
       </c>
     </row>
@@ -8348,7 +8423,7 @@
       <c r="E368" s="2">
         <v>1595</v>
       </c>
-      <c r="F368" s="5">
+      <c r="F368" s="4">
         <v>1.31778997</v>
       </c>
     </row>
@@ -8368,7 +8443,7 @@
       <c r="E369" s="2">
         <v>1291</v>
       </c>
-      <c r="F369" s="5">
+      <c r="F369" s="4">
         <v>0.73431449000000004</v>
       </c>
     </row>
@@ -8388,7 +8463,7 @@
       <c r="E370" s="2">
         <v>1638</v>
       </c>
-      <c r="F370" s="5">
+      <c r="F370" s="4">
         <v>0.6984127</v>
       </c>
     </row>
@@ -8408,7 +8483,7 @@
       <c r="E371" s="2">
         <v>1466</v>
       </c>
-      <c r="F371" s="5">
+      <c r="F371" s="4">
         <v>1.2796725799999999</v>
       </c>
     </row>
@@ -8428,7 +8503,7 @@
       <c r="E372" s="2">
         <v>1295</v>
       </c>
-      <c r="F372" s="5">
+      <c r="F372" s="4">
         <v>1.41312741</v>
       </c>
     </row>
@@ -8448,7 +8523,7 @@
       <c r="E373" s="2">
         <v>1498</v>
       </c>
-      <c r="F373" s="5">
+      <c r="F373" s="4">
         <v>0.64953271000000001</v>
       </c>
     </row>
@@ -8468,7 +8543,7 @@
       <c r="E374" s="2">
         <v>1456</v>
       </c>
-      <c r="F374" s="5">
+      <c r="F374" s="4">
         <v>1.2624771100000001</v>
       </c>
     </row>
@@ -8488,7 +8563,7 @@
       <c r="E375" s="2">
         <v>1237</v>
       </c>
-      <c r="F375" s="5">
+      <c r="F375" s="4">
         <v>1.06265158</v>
       </c>
     </row>
@@ -8508,7 +8583,7 @@
       <c r="E376" s="2">
         <v>1545</v>
       </c>
-      <c r="F376" s="5">
+      <c r="F376" s="4">
         <v>0.84362459999999995</v>
       </c>
     </row>
@@ -8528,7 +8603,7 @@
       <c r="E377" s="2">
         <v>1410</v>
       </c>
-      <c r="F377" s="5">
+      <c r="F377" s="4">
         <v>0.84669030999999995</v>
       </c>
     </row>
@@ -8548,7 +8623,7 @@
       <c r="E378" s="2">
         <v>1602</v>
       </c>
-      <c r="F378" s="5">
+      <c r="F378" s="4">
         <v>1.04868914</v>
       </c>
     </row>
@@ -8568,7 +8643,7 @@
       <c r="E379" s="2">
         <v>1431</v>
       </c>
-      <c r="F379" s="5">
+      <c r="F379" s="4">
         <v>0.74353599000000004</v>
       </c>
     </row>
@@ -8588,7 +8663,7 @@
       <c r="E380" s="2">
         <v>1458</v>
       </c>
-      <c r="F380" s="5">
+      <c r="F380" s="4">
         <v>1.1555403099999999</v>
       </c>
     </row>
@@ -8608,7 +8683,7 @@
       <c r="E381" s="2">
         <v>1635</v>
       </c>
-      <c r="F381" s="5">
+      <c r="F381" s="4">
         <v>0.51009174000000002</v>
       </c>
     </row>
@@ -8628,7 +8703,7 @@
       <c r="E382" s="2">
         <v>1636</v>
       </c>
-      <c r="F382" s="5">
+      <c r="F382" s="4">
         <v>0.34963325000000001</v>
       </c>
     </row>
@@ -8648,7 +8723,7 @@
       <c r="E383" s="2">
         <v>1377</v>
       </c>
-      <c r="F383" s="5">
+      <c r="F383" s="4">
         <v>1.2728758200000001</v>
       </c>
     </row>
@@ -8668,7 +8743,7 @@
       <c r="E384" s="2">
         <v>1375</v>
       </c>
-      <c r="F384" s="5">
+      <c r="F384" s="4">
         <v>0.95636363999999996</v>
       </c>
     </row>
@@ -8688,7 +8763,7 @@
       <c r="E385" s="2">
         <v>1215</v>
       </c>
-      <c r="F385" s="5">
+      <c r="F385" s="4">
         <v>1.31358025</v>
       </c>
     </row>
@@ -8708,7 +8783,7 @@
       <c r="E386" s="2">
         <v>1498</v>
       </c>
-      <c r="F386" s="5">
+      <c r="F386" s="4">
         <v>1.7222964000000001</v>
       </c>
     </row>
@@ -8728,7 +8803,7 @@
       <c r="E387" s="2">
         <v>1507</v>
       </c>
-      <c r="F387" s="5">
+      <c r="F387" s="4">
         <v>0.98473789</v>
       </c>
     </row>
@@ -8748,7 +8823,7 @@
       <c r="E388" s="2">
         <v>1358</v>
       </c>
-      <c r="F388" s="5">
+      <c r="F388" s="4">
         <v>0.94716495000000001</v>
       </c>
     </row>
@@ -8768,7 +8843,7 @@
       <c r="E389" s="2">
         <v>1562</v>
       </c>
-      <c r="F389" s="5">
+      <c r="F389" s="4">
         <v>0.98591549000000001</v>
       </c>
     </row>
@@ -8788,7 +8863,7 @@
       <c r="E390" s="2">
         <v>1391</v>
       </c>
-      <c r="F390" s="5">
+      <c r="F390" s="4">
         <v>1.11286844</v>
       </c>
     </row>
@@ -8808,7 +8883,7 @@
       <c r="E391" s="2">
         <v>1365</v>
       </c>
-      <c r="F391" s="5">
+      <c r="F391" s="4">
         <v>1.0212454200000001</v>
       </c>
     </row>
@@ -8828,7 +8903,7 @@
       <c r="E392" s="2">
         <v>1188</v>
       </c>
-      <c r="F392" s="5">
+      <c r="F392" s="4">
         <v>0.92525252999999996</v>
       </c>
     </row>
@@ -8848,7 +8923,7 @@
       <c r="E393" s="2">
         <v>1414</v>
       </c>
-      <c r="F393" s="5">
+      <c r="F393" s="4">
         <v>0.73267327000000004</v>
       </c>
     </row>
@@ -8868,7 +8943,7 @@
       <c r="E394" s="2">
         <v>1493</v>
       </c>
-      <c r="F394" s="5">
+      <c r="F394" s="4">
         <v>0.99441840000000004</v>
       </c>
     </row>
@@ -8888,7 +8963,7 @@
       <c r="E395" s="2">
         <v>1340</v>
       </c>
-      <c r="F395" s="5">
+      <c r="F395" s="4">
         <v>1.09253731</v>
       </c>
     </row>
@@ -8908,7 +8983,7 @@
       <c r="E396" s="2">
         <v>1636</v>
       </c>
-      <c r="F396" s="5">
+      <c r="F396" s="4">
         <v>1.3221271400000001</v>
       </c>
     </row>
@@ -8928,7 +9003,7 @@
       <c r="E397" s="2">
         <v>1222</v>
       </c>
-      <c r="F397" s="5">
+      <c r="F397" s="4">
         <v>1.3404255300000001</v>
       </c>
     </row>
@@ -8948,7 +9023,7 @@
       <c r="E398" s="2">
         <v>1480</v>
       </c>
-      <c r="F398" s="5">
+      <c r="F398" s="4">
         <v>1.1212355199999999</v>
       </c>
     </row>
@@ -8968,7 +9043,7 @@
       <c r="E399" s="2">
         <v>1469</v>
       </c>
-      <c r="F399" s="5">
+      <c r="F399" s="4">
         <v>0.42250964000000002</v>
       </c>
     </row>
@@ -8988,7 +9063,7 @@
       <c r="E400" s="2">
         <v>1613</v>
       </c>
-      <c r="F400" s="5">
+      <c r="F400" s="4">
         <v>0.77727835999999995</v>
       </c>
     </row>
@@ -9008,7 +9083,7 @@
       <c r="E401" s="2">
         <v>1519</v>
       </c>
-      <c r="F401" s="5">
+      <c r="F401" s="4">
         <v>0.98383438999999995</v>
       </c>
     </row>
@@ -9028,7 +9103,7 @@
       <c r="E402" s="2">
         <v>1340</v>
       </c>
-      <c r="F402" s="5">
+      <c r="F402" s="4">
         <v>0.80597015000000005</v>
       </c>
     </row>
@@ -9048,7 +9123,7 @@
       <c r="E403" s="2">
         <v>1377</v>
       </c>
-      <c r="F403" s="5">
+      <c r="F403" s="4">
         <v>0.94148770999999998</v>
       </c>
     </row>
@@ -9068,7 +9143,7 @@
       <c r="E404" s="2">
         <v>1335</v>
       </c>
-      <c r="F404" s="5">
+      <c r="F404" s="4">
         <v>1.0258427000000001</v>
       </c>
     </row>
@@ -9088,7 +9163,7 @@
       <c r="E405" s="2">
         <v>1447</v>
       </c>
-      <c r="F405" s="5">
+      <c r="F405" s="4">
         <v>0.93970282999999999</v>
       </c>
     </row>
@@ -9108,7 +9183,7 @@
       <c r="E406" s="2">
         <v>1528</v>
       </c>
-      <c r="F406" s="5">
+      <c r="F406" s="4">
         <v>0.95287957999999995</v>
       </c>
     </row>
@@ -9128,7 +9203,7 @@
       <c r="E407" s="2">
         <v>1486</v>
       </c>
-      <c r="F407" s="5">
+      <c r="F407" s="4">
         <v>0.70165993999999998</v>
       </c>
     </row>
@@ -9148,7 +9223,7 @@
       <c r="E408" s="2">
         <v>1391</v>
       </c>
-      <c r="F408" s="5">
+      <c r="F408" s="4">
         <v>1.03673616</v>
       </c>
     </row>
@@ -9168,7 +9243,7 @@
       <c r="E409" s="2">
         <v>1408</v>
       </c>
-      <c r="F409" s="5">
+      <c r="F409" s="4">
         <v>0.90909090999999997</v>
       </c>
     </row>
@@ -9188,7 +9263,7 @@
       <c r="E410" s="2">
         <v>1588</v>
       </c>
-      <c r="F410" s="5">
+      <c r="F410" s="4">
         <v>0.66866079</v>
       </c>
     </row>
@@ -9208,7 +9283,7 @@
       <c r="E411" s="2">
         <v>1482</v>
       </c>
-      <c r="F411" s="5">
+      <c r="F411" s="4">
         <v>0.56572199999999995</v>
       </c>
     </row>
@@ -9228,7 +9303,7 @@
       <c r="E412" s="2">
         <v>1499</v>
       </c>
-      <c r="F412" s="5">
+      <c r="F412" s="4">
         <v>0.95474760999999997</v>
       </c>
     </row>
@@ -9248,7 +9323,7 @@
       <c r="E413" s="2">
         <v>1399</v>
       </c>
-      <c r="F413" s="5">
+      <c r="F413" s="4">
         <v>1.19513939</v>
       </c>
     </row>
@@ -9268,7 +9343,7 @@
       <c r="E414" s="2">
         <v>1330</v>
       </c>
-      <c r="F414" s="5">
+      <c r="F414" s="4">
         <v>0.59899749000000002</v>
       </c>
     </row>
@@ -9288,7 +9363,7 @@
       <c r="E415" s="2">
         <v>1483</v>
       </c>
-      <c r="F415" s="5">
+      <c r="F415" s="4">
         <v>1.3966958899999999</v>
       </c>
     </row>
@@ -9308,7 +9383,7 @@
       <c r="E416" s="2">
         <v>1477</v>
       </c>
-      <c r="F416" s="5">
+      <c r="F416" s="4">
         <v>1.2561845700000001</v>
       </c>
     </row>
@@ -9328,7 +9403,7 @@
       <c r="E417" s="2">
         <v>1651</v>
       </c>
-      <c r="F417" s="5">
+      <c r="F417" s="4">
         <v>0.87240057000000004</v>
       </c>
     </row>
@@ -9348,7 +9423,7 @@
       <c r="E418" s="2">
         <v>1488</v>
       </c>
-      <c r="F418" s="5">
+      <c r="F418" s="4">
         <v>0.72311828</v>
       </c>
     </row>
@@ -9368,7 +9443,7 @@
       <c r="E419" s="2">
         <v>1445</v>
       </c>
-      <c r="F419" s="5">
+      <c r="F419" s="4">
         <v>1.0837370200000001</v>
       </c>
     </row>
@@ -9388,7 +9463,7 @@
       <c r="E420" s="2">
         <v>1429</v>
       </c>
-      <c r="F420" s="5">
+      <c r="F420" s="4">
         <v>0.75017495000000001</v>
       </c>
     </row>
@@ -9408,7 +9483,7 @@
       <c r="E421" s="2">
         <v>1563</v>
       </c>
-      <c r="F421" s="5">
+      <c r="F421" s="4">
         <v>0.72680741999999998</v>
       </c>
     </row>
@@ -9428,7 +9503,7 @@
       <c r="E422" s="2">
         <v>1768</v>
       </c>
-      <c r="F422" s="5">
+      <c r="F422" s="4">
         <v>0.76546002999999996</v>
       </c>
     </row>
@@ -9448,7 +9523,7 @@
       <c r="E423" s="2">
         <v>1643</v>
       </c>
-      <c r="F423" s="5">
+      <c r="F423" s="4">
         <v>1.3420572099999999</v>
       </c>
     </row>
@@ -9468,7 +9543,7 @@
       <c r="E424" s="2">
         <v>1277</v>
       </c>
-      <c r="F424" s="5">
+      <c r="F424" s="4">
         <v>0.96906813000000003</v>
       </c>
     </row>
@@ -9488,7 +9563,7 @@
       <c r="E425" s="2">
         <v>1382</v>
       </c>
-      <c r="F425" s="5">
+      <c r="F425" s="4">
         <v>0.64998966000000002</v>
       </c>
     </row>
@@ -9508,7 +9583,7 @@
       <c r="E426" s="2">
         <v>1389</v>
       </c>
-      <c r="F426" s="5">
+      <c r="F426" s="4">
         <v>1.0928725699999999</v>
       </c>
     </row>
@@ -9528,7 +9603,7 @@
       <c r="E427" s="2">
         <v>1482</v>
       </c>
-      <c r="F427" s="5">
+      <c r="F427" s="4">
         <v>0.81871344999999995</v>
       </c>
     </row>
@@ -9548,7 +9623,7 @@
       <c r="E428" s="2">
         <v>1584</v>
       </c>
-      <c r="F428" s="5">
+      <c r="F428" s="4">
         <v>0.35606061</v>
       </c>
     </row>
@@ -9568,7 +9643,7 @@
       <c r="E429" s="2">
         <v>1385</v>
       </c>
-      <c r="F429" s="5">
+      <c r="F429" s="4">
         <v>0.97400721999999995</v>
       </c>
     </row>
@@ -9588,7 +9663,7 @@
       <c r="E430" s="2">
         <v>1490</v>
       </c>
-      <c r="F430" s="5">
+      <c r="F430" s="4">
         <v>1.3191946299999999</v>
       </c>
     </row>
@@ -9608,7 +9683,7 @@
       <c r="E431" s="2">
         <v>1437</v>
       </c>
-      <c r="F431" s="5">
+      <c r="F431" s="4">
         <v>0.96497332000000002</v>
       </c>
     </row>
@@ -9628,7 +9703,7 @@
       <c r="E432" s="2">
         <v>1394</v>
       </c>
-      <c r="F432" s="5">
+      <c r="F432" s="4">
         <v>0.91571018999999998</v>
       </c>
     </row>
@@ -9648,7 +9723,7 @@
       <c r="E433" s="2">
         <v>1394</v>
       </c>
-      <c r="F433" s="5">
+      <c r="F433" s="4">
         <v>0.83816356000000003</v>
       </c>
     </row>
@@ -9668,7 +9743,7 @@
       <c r="E434" s="2">
         <v>1665</v>
       </c>
-      <c r="F434" s="5">
+      <c r="F434" s="4">
         <v>0.94877734999999996</v>
       </c>
     </row>
@@ -9688,7 +9763,7 @@
       <c r="E435" s="2">
         <v>1410</v>
       </c>
-      <c r="F435" s="5">
+      <c r="F435" s="4">
         <v>1.4784194500000001</v>
       </c>
     </row>
@@ -9708,7 +9783,7 @@
       <c r="E436" s="2">
         <v>1694</v>
       </c>
-      <c r="F436" s="5">
+      <c r="F436" s="4">
         <v>0.78630460000000002</v>
       </c>
     </row>
@@ -9728,7 +9803,7 @@
       <c r="E437" s="2">
         <v>1582</v>
       </c>
-      <c r="F437" s="5">
+      <c r="F437" s="4">
         <v>1.0472503200000001</v>
       </c>
     </row>
@@ -9748,7 +9823,7 @@
       <c r="E438" s="2">
         <v>1440</v>
       </c>
-      <c r="F438" s="5">
+      <c r="F438" s="4">
         <v>0.93055555999999995</v>
       </c>
     </row>
@@ -9768,7 +9843,7 @@
       <c r="E439" s="2">
         <v>1367</v>
       </c>
-      <c r="F439" s="5">
+      <c r="F439" s="4">
         <v>0.73931753</v>
       </c>
     </row>
@@ -9788,7 +9863,7 @@
       <c r="E440" s="2">
         <v>1471</v>
       </c>
-      <c r="F440" s="5">
+      <c r="F440" s="4">
         <v>1.0731928399999999</v>
       </c>
     </row>
@@ -9808,7 +9883,7 @@
       <c r="E441" s="2">
         <v>1386</v>
       </c>
-      <c r="F441" s="5">
+      <c r="F441" s="4">
         <v>1.23809524</v>
       </c>
     </row>
@@ -9828,7 +9903,7 @@
       <c r="E442" s="2">
         <v>1633</v>
       </c>
-      <c r="F442" s="5">
+      <c r="F442" s="4">
         <v>1.00704225</v>
       </c>
     </row>
@@ -9848,7 +9923,7 @@
       <c r="E443" s="2">
         <v>1465</v>
       </c>
-      <c r="F443" s="5">
+      <c r="F443" s="4">
         <v>0.88737200999999999</v>
       </c>
     </row>
@@ -9868,7 +9943,7 @@
       <c r="E444" s="2">
         <v>1522</v>
       </c>
-      <c r="F444" s="5">
+      <c r="F444" s="4">
         <v>1.1930026300000001</v>
       </c>
     </row>
@@ -9888,7 +9963,7 @@
       <c r="E445" s="2">
         <v>1509</v>
       </c>
-      <c r="F445" s="5">
+      <c r="F445" s="4">
         <v>1.19317429</v>
       </c>
     </row>
@@ -9908,7 +9983,7 @@
       <c r="E446" s="2">
         <v>1344</v>
       </c>
-      <c r="F446" s="5">
+      <c r="F446" s="4">
         <v>0.36458332999999998</v>
       </c>
     </row>
@@ -9928,7 +10003,7 @@
       <c r="E447" s="2">
         <v>1548</v>
       </c>
-      <c r="F447" s="5">
+      <c r="F447" s="4">
         <v>1.5868217099999999</v>
       </c>
     </row>
@@ -9948,7 +10023,7 @@
       <c r="E448" s="2">
         <v>1598</v>
       </c>
-      <c r="F448" s="5">
+      <c r="F448" s="4">
         <v>1.3469962499999999</v>
       </c>
     </row>
@@ -9968,7 +10043,7 @@
       <c r="E449" s="2">
         <v>1247</v>
       </c>
-      <c r="F449" s="5">
+      <c r="F449" s="4">
         <v>0.89067094000000002</v>
       </c>
     </row>
@@ -9988,7 +10063,7 @@
       <c r="E450" s="2">
         <v>1533</v>
       </c>
-      <c r="F450" s="5">
+      <c r="F450" s="4">
         <v>0.18199609</v>
       </c>
     </row>
@@ -10008,7 +10083,7 @@
       <c r="E451" s="2">
         <v>1449</v>
       </c>
-      <c r="F451" s="5">
+      <c r="F451" s="4">
         <v>0.79813665</v>
       </c>
     </row>
@@ -10028,7 +10103,7 @@
       <c r="E452" s="2">
         <v>1620</v>
       </c>
-      <c r="F452" s="5">
+      <c r="F452" s="4">
         <v>0.98</v>
       </c>
     </row>
@@ -10048,7 +10123,7 @@
       <c r="E453" s="2">
         <v>1415</v>
       </c>
-      <c r="F453" s="5">
+      <c r="F453" s="4">
         <v>1.33738516</v>
       </c>
     </row>
@@ -10068,7 +10143,7 @@
       <c r="E454" s="2">
         <v>1520</v>
       </c>
-      <c r="F454" s="5">
+      <c r="F454" s="4">
         <v>1.38651316</v>
       </c>
     </row>
@@ -10088,7 +10163,7 @@
       <c r="E455" s="2">
         <v>1464</v>
       </c>
-      <c r="F455" s="5">
+      <c r="F455" s="4">
         <v>0.84187157999999995</v>
       </c>
     </row>
@@ -10108,7 +10183,7 @@
       <c r="E456" s="2">
         <v>1352</v>
       </c>
-      <c r="F456" s="5">
+      <c r="F456" s="4">
         <v>0.63362918999999995</v>
       </c>
     </row>
@@ -10128,7 +10203,7 @@
       <c r="E457" s="2">
         <v>1587</v>
       </c>
-      <c r="F457" s="5">
+      <c r="F457" s="4">
         <v>0.81231434000000002</v>
       </c>
     </row>
@@ -10148,7 +10223,7 @@
       <c r="E458" s="2">
         <v>1366</v>
       </c>
-      <c r="F458" s="5">
+      <c r="F458" s="4">
         <v>0.24597364999999999</v>
       </c>
     </row>
@@ -10168,7 +10243,7 @@
       <c r="E459" s="2">
         <v>1522</v>
       </c>
-      <c r="F459" s="5">
+      <c r="F459" s="4">
         <v>1.69710907</v>
       </c>
     </row>
@@ -10188,7 +10263,7 @@
       <c r="E460" s="2">
         <v>1530</v>
       </c>
-      <c r="F460" s="5">
+      <c r="F460" s="4">
         <v>0.35816993000000003</v>
       </c>
     </row>
@@ -10208,7 +10283,7 @@
       <c r="E461" s="2">
         <v>1437</v>
       </c>
-      <c r="F461" s="5">
+      <c r="F461" s="4">
         <v>1.62839248</v>
       </c>
     </row>
@@ -10228,7 +10303,7 @@
       <c r="E462" s="2">
         <v>1457</v>
       </c>
-      <c r="F462" s="5">
+      <c r="F462" s="4">
         <v>1.25042896</v>
       </c>
     </row>
@@ -10248,7 +10323,7 @@
       <c r="E463" s="2">
         <v>1475</v>
       </c>
-      <c r="F463" s="5">
+      <c r="F463" s="4">
         <v>0.36881355999999998</v>
       </c>
     </row>
@@ -10268,7 +10343,7 @@
       <c r="E464" s="2">
         <v>1611</v>
       </c>
-      <c r="F464" s="5">
+      <c r="F464" s="4">
         <v>0.75698323999999995</v>
       </c>
     </row>
@@ -10288,7 +10363,7 @@
       <c r="E465" s="2">
         <v>1655</v>
       </c>
-      <c r="F465" s="5">
+      <c r="F465" s="4">
         <v>1.08436556</v>
       </c>
     </row>
@@ -10308,7 +10383,7 @@
       <c r="E466" s="2">
         <v>1553</v>
       </c>
-      <c r="F466" s="5">
+      <c r="F466" s="4">
         <v>1.2034771399999999</v>
       </c>
     </row>
@@ -10328,7 +10403,7 @@
       <c r="E467" s="2">
         <v>1434</v>
       </c>
-      <c r="F467" s="5">
+      <c r="F467" s="4">
         <v>0.39330544000000001</v>
       </c>
     </row>
@@ -10348,7 +10423,7 @@
       <c r="E468" s="2">
         <v>1323</v>
       </c>
-      <c r="F468" s="5">
+      <c r="F468" s="4">
         <v>0.74981103999999998</v>
       </c>
     </row>
@@ -10368,7 +10443,7 @@
       <c r="E469" s="2">
         <v>1452</v>
       </c>
-      <c r="F469" s="5">
+      <c r="F469" s="4">
         <v>0.99540863000000002</v>
       </c>
     </row>
@@ -10388,7 +10463,7 @@
       <c r="E470" s="2">
         <v>1510</v>
       </c>
-      <c r="F470" s="5">
+      <c r="F470" s="4">
         <v>0.63894039999999996</v>
       </c>
     </row>
@@ -10408,7 +10483,7 @@
       <c r="E471" s="2">
         <v>1556</v>
       </c>
-      <c r="F471" s="5">
+      <c r="F471" s="4">
         <v>1.1105398500000001</v>
       </c>
     </row>
@@ -10428,7 +10503,7 @@
       <c r="E472" s="2">
         <v>1463</v>
       </c>
-      <c r="F472" s="5">
+      <c r="F472" s="4">
         <v>1.03349282</v>
       </c>
     </row>
@@ -10448,7 +10523,7 @@
       <c r="E473" s="2">
         <v>1546</v>
       </c>
-      <c r="F473" s="5">
+      <c r="F473" s="4">
         <v>1.2155023700000001</v>
       </c>
     </row>
@@ -10468,7 +10543,7 @@
       <c r="E474" s="2">
         <v>1579</v>
       </c>
-      <c r="F474" s="5">
+      <c r="F474" s="4">
         <v>1.0259658</v>
       </c>
     </row>
@@ -10488,7 +10563,7 @@
       <c r="E475" s="2">
         <v>1517</v>
       </c>
-      <c r="F475" s="5">
+      <c r="F475" s="4">
         <v>0.78554164000000004</v>
       </c>
     </row>
@@ -10508,7 +10583,7 @@
       <c r="E476" s="2">
         <v>1492</v>
       </c>
-      <c r="F476" s="5">
+      <c r="F476" s="4">
         <v>0.81735924999999998</v>
       </c>
     </row>
@@ -10528,7 +10603,7 @@
       <c r="E477" s="2">
         <v>1438</v>
       </c>
-      <c r="F477" s="5">
+      <c r="F477" s="4">
         <v>1.0212100099999999</v>
       </c>
     </row>
@@ -10548,7 +10623,7 @@
       <c r="E478" s="2">
         <v>1369</v>
       </c>
-      <c r="F478" s="5">
+      <c r="F478" s="4">
         <v>0.73254722000000005</v>
       </c>
     </row>
@@ -10568,7 +10643,7 @@
       <c r="E479" s="2">
         <v>1215</v>
       </c>
-      <c r="F479" s="5">
+      <c r="F479" s="4">
         <v>0.94024691000000005</v>
       </c>
     </row>
@@ -10588,7 +10663,7 @@
       <c r="E480" s="2">
         <v>1416</v>
       </c>
-      <c r="F480" s="5">
+      <c r="F480" s="4">
         <v>0.98085372999999998</v>
       </c>
     </row>
@@ -10608,7 +10683,7 @@
       <c r="E481" s="2">
         <v>1450</v>
       </c>
-      <c r="F481" s="5">
+      <c r="F481" s="4">
         <v>0.84768473</v>
       </c>
     </row>
@@ -10628,7 +10703,7 @@
       <c r="E482" s="2">
         <v>1343</v>
       </c>
-      <c r="F482" s="5">
+      <c r="F482" s="4">
         <v>0.78264400999999995</v>
       </c>
     </row>
@@ -10648,7 +10723,7 @@
       <c r="E483" s="2">
         <v>1526</v>
       </c>
-      <c r="F483" s="5">
+      <c r="F483" s="4">
         <v>1.0655307999999999</v>
       </c>
     </row>
@@ -10668,7 +10743,7 @@
       <c r="E484" s="2">
         <v>1355</v>
       </c>
-      <c r="F484" s="5">
+      <c r="F484" s="4">
         <v>0.83431734000000002</v>
       </c>
     </row>
@@ -10688,7 +10763,7 @@
       <c r="E485" s="2">
         <v>1458</v>
       </c>
-      <c r="F485" s="5">
+      <c r="F485" s="4">
         <v>1.30864198</v>
       </c>
     </row>
@@ -10708,7 +10783,7 @@
       <c r="E486" s="2">
         <v>1420</v>
       </c>
-      <c r="F486" s="5">
+      <c r="F486" s="4">
         <v>1.0583501</v>
       </c>
     </row>
@@ -10728,7 +10803,7 @@
       <c r="E487" s="2">
         <v>1661</v>
       </c>
-      <c r="F487" s="5">
+      <c r="F487" s="4">
         <v>1.0064218300000001</v>
       </c>
     </row>
@@ -10748,7 +10823,7 @@
       <c r="E488" s="2">
         <v>1424</v>
       </c>
-      <c r="F488" s="5">
+      <c r="F488" s="4">
         <v>0.82738763999999998</v>
       </c>
     </row>
@@ -10768,7 +10843,7 @@
       <c r="E489" s="2">
         <v>1643</v>
       </c>
-      <c r="F489" s="5">
+      <c r="F489" s="4">
         <v>1.4899574</v>
       </c>
     </row>
@@ -10788,7 +10863,7 @@
       <c r="E490" s="2">
         <v>1360</v>
       </c>
-      <c r="F490" s="5">
+      <c r="F490" s="4">
         <v>0.98823528999999999</v>
       </c>
     </row>
@@ -10808,7 +10883,7 @@
       <c r="E491" s="2">
         <v>1221</v>
       </c>
-      <c r="F491" s="5">
+      <c r="F491" s="4">
         <v>1.0878378399999999</v>
       </c>
     </row>
@@ -10828,7 +10903,7 @@
       <c r="E492" s="2">
         <v>1348</v>
       </c>
-      <c r="F492" s="5">
+      <c r="F492" s="4">
         <v>0.89997526999999999</v>
       </c>
     </row>
@@ -10848,7 +10923,7 @@
       <c r="E493" s="2">
         <v>1481</v>
       </c>
-      <c r="F493" s="5">
+      <c r="F493" s="4">
         <v>1.2775151899999999</v>
       </c>
     </row>
@@ -10868,7 +10943,7 @@
       <c r="E494" s="2">
         <v>1524</v>
       </c>
-      <c r="F494" s="5">
+      <c r="F494" s="4">
         <v>0.37664041999999998</v>
       </c>
     </row>
@@ -10888,7 +10963,7 @@
       <c r="E495" s="2">
         <v>1592</v>
       </c>
-      <c r="F495" s="5">
+      <c r="F495" s="4">
         <v>1.04428392</v>
       </c>
     </row>
@@ -10908,7 +10983,7 @@
       <c r="E496" s="2">
         <v>1637</v>
       </c>
-      <c r="F496" s="5">
+      <c r="F496" s="4">
         <v>0.89594786999999998</v>
       </c>
     </row>
@@ -10928,7 +11003,7 @@
       <c r="E497" s="2">
         <v>1264</v>
       </c>
-      <c r="F497" s="5">
+      <c r="F497" s="4">
         <v>1.08457998</v>
       </c>
     </row>
@@ -10948,7 +11023,7 @@
       <c r="E498" s="2">
         <v>1299</v>
       </c>
-      <c r="F498" s="5">
+      <c r="F498" s="4">
         <v>0.86518476</v>
       </c>
     </row>
@@ -10968,7 +11043,7 @@
       <c r="E499" s="2">
         <v>1481</v>
       </c>
-      <c r="F499" s="5">
+      <c r="F499" s="4">
         <v>1.71910871</v>
       </c>
     </row>
@@ -10988,7 +11063,7 @@
       <c r="E500" s="2">
         <v>1219</v>
       </c>
-      <c r="F500" s="5">
+      <c r="F500" s="4">
         <v>0.92608696000000001</v>
       </c>
     </row>
@@ -11008,7 +11083,7 @@
       <c r="E501" s="2">
         <v>1506</v>
       </c>
-      <c r="F501" s="5">
+      <c r="F501" s="4">
         <v>0.98959717000000003</v>
       </c>
     </row>
@@ -11028,7 +11103,7 @@
       <c r="E502" s="2">
         <v>1342</v>
       </c>
-      <c r="F502" s="5">
+      <c r="F502" s="4">
         <v>0.19225037</v>
       </c>
     </row>
@@ -11048,7 +11123,7 @@
       <c r="E503" s="2">
         <v>1525</v>
       </c>
-      <c r="F503" s="5">
+      <c r="F503" s="4">
         <v>1.07486339</v>
       </c>
     </row>
@@ -11068,7 +11143,7 @@
       <c r="E504" s="2">
         <v>1378</v>
       </c>
-      <c r="F504" s="5">
+      <c r="F504" s="4">
         <v>1.3552249599999999</v>
       </c>
     </row>
@@ -11088,7 +11163,7 @@
       <c r="E505" s="2">
         <v>1588</v>
       </c>
-      <c r="F505" s="5">
+      <c r="F505" s="4">
         <v>0.87531486000000003</v>
       </c>
     </row>
@@ -11108,7 +11183,7 @@
       <c r="E506" s="2">
         <v>1565</v>
       </c>
-      <c r="F506" s="5">
+      <c r="F506" s="4">
         <v>0.89456869000000006</v>
       </c>
     </row>
@@ -11128,7 +11203,7 @@
       <c r="E507" s="2">
         <v>1427</v>
       </c>
-      <c r="F507" s="5">
+      <c r="F507" s="4">
         <v>0.97862649000000002</v>
       </c>
     </row>
@@ -11148,7 +11223,7 @@
       <c r="E508" s="2">
         <v>1530</v>
       </c>
-      <c r="F508" s="5">
+      <c r="F508" s="4">
         <v>1.09640523</v>
       </c>
     </row>
@@ -11168,7 +11243,7 @@
       <c r="E509" s="2">
         <v>1527</v>
       </c>
-      <c r="F509" s="5">
+      <c r="F509" s="4">
         <v>1.07318271</v>
       </c>
     </row>
@@ -11188,7 +11263,7 @@
       <c r="E510" s="2">
         <v>1473</v>
       </c>
-      <c r="F510" s="5">
+      <c r="F510" s="4">
         <v>1.0107549899999999</v>
       </c>
     </row>
@@ -11208,7 +11283,7 @@
       <c r="E511" s="2">
         <v>1438</v>
       </c>
-      <c r="F511" s="5">
+      <c r="F511" s="4">
         <v>1.0649711900000001</v>
       </c>
     </row>
@@ -11228,7 +11303,7 @@
       <c r="E512" s="2">
         <v>1390</v>
       </c>
-      <c r="F512" s="5">
+      <c r="F512" s="4">
         <v>0.75395683000000002</v>
       </c>
     </row>
@@ -11248,7 +11323,7 @@
       <c r="E513" s="2">
         <v>1248</v>
       </c>
-      <c r="F513" s="5">
+      <c r="F513" s="4">
         <v>0.875</v>
       </c>
     </row>
@@ -11268,7 +11343,7 @@
       <c r="E514" s="2">
         <v>1619</v>
       </c>
-      <c r="F514" s="5">
+      <c r="F514" s="4">
         <v>1.1964175399999999</v>
       </c>
     </row>
@@ -11288,7 +11363,7 @@
       <c r="E515" s="2">
         <v>1492</v>
       </c>
-      <c r="F515" s="5">
+      <c r="F515" s="4">
         <v>0.86639856999999998</v>
       </c>
     </row>
@@ -11308,7 +11383,7 @@
       <c r="E516" s="2">
         <v>1516</v>
       </c>
-      <c r="F516" s="5">
+      <c r="F516" s="4">
         <v>1.11543536</v>
       </c>
     </row>
@@ -11328,7 +11403,7 @@
       <c r="E517" s="2">
         <v>1482</v>
       </c>
-      <c r="F517" s="5">
+      <c r="F517" s="4">
         <v>1.3006072900000001</v>
       </c>
     </row>
@@ -11348,7 +11423,7 @@
       <c r="E518" s="2">
         <v>1476</v>
       </c>
-      <c r="F518" s="5">
+      <c r="F518" s="4">
         <v>1.20144535</v>
       </c>
     </row>
@@ -11368,7 +11443,7 @@
       <c r="E519" s="2">
         <v>1499</v>
       </c>
-      <c r="F519" s="5">
+      <c r="F519" s="4">
         <v>1.13675784</v>
       </c>
     </row>
@@ -11388,7 +11463,7 @@
       <c r="E520" s="2">
         <v>1590</v>
       </c>
-      <c r="F520" s="5">
+      <c r="F520" s="4">
         <v>0.99965694999999999</v>
       </c>
     </row>
@@ -11408,7 +11483,7 @@
       <c r="E521" s="2">
         <v>1428</v>
       </c>
-      <c r="F521" s="5">
+      <c r="F521" s="4">
         <v>0.88550419999999996</v>
       </c>
     </row>
@@ -11428,7 +11503,7 @@
       <c r="E522" s="2">
         <v>1388</v>
       </c>
-      <c r="F522" s="5">
+      <c r="F522" s="4">
         <v>1.7053314100000001</v>
       </c>
     </row>
@@ -11448,7 +11523,7 @@
       <c r="E523" s="2">
         <v>1469</v>
       </c>
-      <c r="F523" s="5">
+      <c r="F523" s="4">
         <v>1.0800125700000001</v>
       </c>
     </row>
@@ -11468,7 +11543,7 @@
       <c r="E524" s="2">
         <v>1403</v>
       </c>
-      <c r="F524" s="5">
+      <c r="F524" s="4">
         <v>1.31218817</v>
       </c>
     </row>
@@ -11488,7 +11563,7 @@
       <c r="E525" s="2">
         <v>1410</v>
       </c>
-      <c r="F525" s="5">
+      <c r="F525" s="4">
         <v>1.0926499000000001</v>
       </c>
     </row>
@@ -11508,7 +11583,7 @@
       <c r="E526" s="2">
         <v>1384</v>
       </c>
-      <c r="F526" s="5">
+      <c r="F526" s="4">
         <v>0.98651252</v>
       </c>
     </row>
@@ -11528,7 +11603,7 @@
       <c r="E527" s="2">
         <v>1388</v>
       </c>
-      <c r="F527" s="5">
+      <c r="F527" s="4">
         <v>1.85158501</v>
       </c>
     </row>
@@ -11548,7 +11623,7 @@
       <c r="E528" s="2">
         <v>1545</v>
       </c>
-      <c r="F528" s="5">
+      <c r="F528" s="4">
         <v>0.73968447000000004</v>
       </c>
     </row>
@@ -11568,7 +11643,7 @@
       <c r="E529" s="2">
         <v>1440</v>
       </c>
-      <c r="F529" s="5">
+      <c r="F529" s="4">
         <v>1.15231481</v>
       </c>
     </row>
@@ -11588,7 +11663,7 @@
       <c r="E530" s="2">
         <v>1362</v>
       </c>
-      <c r="F530" s="5">
+      <c r="F530" s="4">
         <v>0.98531570999999996</v>
       </c>
     </row>
@@ -11608,7 +11683,7 @@
       <c r="E531" s="2">
         <v>1406</v>
       </c>
-      <c r="F531" s="5">
+      <c r="F531" s="4">
         <v>1.0745614000000001</v>
       </c>
     </row>
@@ -11628,7 +11703,7 @@
       <c r="E532" s="2">
         <v>1432</v>
       </c>
-      <c r="F532" s="5">
+      <c r="F532" s="4">
         <v>1.21042831</v>
       </c>
     </row>
@@ -11648,7 +11723,7 @@
       <c r="E533" s="2">
         <v>1608</v>
       </c>
-      <c r="F533" s="5">
+      <c r="F533" s="4">
         <v>1.2595948800000001</v>
       </c>
     </row>
@@ -11668,7 +11743,7 @@
       <c r="E534" s="2">
         <v>1278</v>
       </c>
-      <c r="F534" s="5">
+      <c r="F534" s="4">
         <v>0.93472873999999995</v>
       </c>
     </row>
@@ -11688,7 +11763,7 @@
       <c r="E535" s="2">
         <v>1568</v>
       </c>
-      <c r="F535" s="5">
+      <c r="F535" s="4">
         <v>1.0676020399999999</v>
       </c>
     </row>
@@ -11708,7 +11783,7 @@
       <c r="E536" s="2">
         <v>1550</v>
       </c>
-      <c r="F536" s="5">
+      <c r="F536" s="4">
         <v>0.87882353000000002</v>
       </c>
     </row>
@@ -11728,7 +11803,7 @@
       <c r="E537" s="2">
         <v>1569</v>
       </c>
-      <c r="F537" s="5">
+      <c r="F537" s="4">
         <v>1.1387295500000001</v>
       </c>
     </row>
@@ -11748,7 +11823,7 @@
       <c r="E538" s="2">
         <v>1374</v>
       </c>
-      <c r="F538" s="5">
+      <c r="F538" s="4">
         <v>0.79257641999999995</v>
       </c>
     </row>
@@ -11768,7 +11843,7 @@
       <c r="E539" s="2">
         <v>1372</v>
       </c>
-      <c r="F539" s="5">
+      <c r="F539" s="4">
         <v>0.95481050000000001</v>
       </c>
     </row>
@@ -11788,7 +11863,7 @@
       <c r="E540" s="2">
         <v>1432</v>
       </c>
-      <c r="F540" s="5">
+      <c r="F540" s="4">
         <v>1.3007448800000001</v>
       </c>
     </row>
@@ -11808,7 +11883,7 @@
       <c r="E541" s="2">
         <v>1462</v>
       </c>
-      <c r="F541" s="5">
+      <c r="F541" s="4">
         <v>0.62021203999999996</v>
       </c>
     </row>
@@ -11828,7 +11903,7 @@
       <c r="E542" s="2">
         <v>1380</v>
       </c>
-      <c r="F542" s="5">
+      <c r="F542" s="4">
         <v>0.84468599</v>
       </c>
     </row>
@@ -11848,7 +11923,7 @@
       <c r="E543" s="2">
         <v>1450</v>
       </c>
-      <c r="F543" s="5">
+      <c r="F543" s="4">
         <v>1.0429310300000001</v>
       </c>
     </row>
@@ -11868,7 +11943,7 @@
       <c r="E544" s="2">
         <v>1459</v>
       </c>
-      <c r="F544" s="5">
+      <c r="F544" s="4">
         <v>1.4450536899999999</v>
       </c>
     </row>
@@ -11888,7 +11963,7 @@
       <c r="E545" s="2">
         <v>1344</v>
       </c>
-      <c r="F545" s="5">
+      <c r="F545" s="4">
         <v>1.4426406899999999</v>
       </c>
     </row>
@@ -11908,7 +11983,7 @@
       <c r="E546" s="2">
         <v>1514</v>
       </c>
-      <c r="F546" s="5">
+      <c r="F546" s="4">
         <v>0.94510495000000005</v>
       </c>
     </row>
@@ -11928,7 +12003,7 @@
       <c r="E547" s="2">
         <v>1469</v>
       </c>
-      <c r="F547" s="5">
+      <c r="F547" s="4">
         <v>0.89176310000000003</v>
       </c>
     </row>
@@ -11948,7 +12023,7 @@
       <c r="E548" s="2">
         <v>1480</v>
       </c>
-      <c r="F548" s="5">
+      <c r="F548" s="4">
         <v>0.95366795000000004</v>
       </c>
     </row>
@@ -11968,7 +12043,7 @@
       <c r="E549" s="2">
         <v>1546</v>
       </c>
-      <c r="F549" s="5">
+      <c r="F549" s="4">
         <v>1.6125485100000001</v>
       </c>
     </row>
@@ -11988,7 +12063,7 @@
       <c r="E550" s="2">
         <v>1497</v>
       </c>
-      <c r="F550" s="5">
+      <c r="F550" s="4">
         <v>0.36606546000000001</v>
       </c>
     </row>
@@ -12008,7 +12083,7 @@
       <c r="E551" s="2">
         <v>1444</v>
       </c>
-      <c r="F551" s="5">
+      <c r="F551" s="4">
         <v>1.63919668</v>
       </c>
     </row>
@@ -12028,7 +12103,7 @@
       <c r="E552" s="2">
         <v>1509</v>
       </c>
-      <c r="F552" s="5">
+      <c r="F552" s="4">
         <v>0.67793241000000004</v>
       </c>
     </row>
@@ -12048,7 +12123,7 @@
       <c r="E553" s="2">
         <v>1465</v>
       </c>
-      <c r="F553" s="5">
+      <c r="F553" s="4">
         <v>1.8225256000000001</v>
       </c>
     </row>
@@ -12068,7 +12143,7 @@
       <c r="E554" s="2">
         <v>1604</v>
       </c>
-      <c r="F554" s="5">
+      <c r="F554" s="4">
         <v>0.7542394</v>
       </c>
     </row>
@@ -12088,7 +12163,7 @@
       <c r="E555" s="2">
         <v>1424</v>
       </c>
-      <c r="F555" s="5">
+      <c r="F555" s="4">
         <v>0.50017555999999996</v>
       </c>
     </row>
@@ -12108,7 +12183,7 @@
       <c r="E556" s="2">
         <v>1405</v>
       </c>
-      <c r="F556" s="5">
+      <c r="F556" s="4">
         <v>0.98324166999999996</v>
       </c>
     </row>
@@ -12128,7 +12203,7 @@
       <c r="E557" s="2">
         <v>1450</v>
       </c>
-      <c r="F557" s="5">
+      <c r="F557" s="4">
         <v>0.75287356000000005</v>
       </c>
     </row>
@@ -12148,7 +12223,7 @@
       <c r="E558" s="2">
         <v>1532</v>
       </c>
-      <c r="F558" s="5">
+      <c r="F558" s="4">
         <v>1.1129242800000001</v>
       </c>
     </row>
@@ -12168,7 +12243,7 @@
       <c r="E559" s="2">
         <v>1482</v>
       </c>
-      <c r="F559" s="5">
+      <c r="F559" s="4">
         <v>1.0809716599999999</v>
       </c>
     </row>
@@ -12188,7 +12263,7 @@
       <c r="E560" s="2">
         <v>1505</v>
       </c>
-      <c r="F560" s="5">
+      <c r="F560" s="4">
         <v>0.93488371999999997</v>
       </c>
     </row>
@@ -12208,7 +12283,7 @@
       <c r="E561" s="2">
         <v>1499</v>
       </c>
-      <c r="F561" s="5">
+      <c r="F561" s="4">
         <v>1.1256595300000001</v>
       </c>
     </row>
@@ -12228,7 +12303,7 @@
       <c r="E562" s="2">
         <v>1410</v>
       </c>
-      <c r="F562" s="5">
+      <c r="F562" s="4">
         <v>0.45390070999999999</v>
       </c>
     </row>
@@ -12248,7 +12323,7 @@
       <c r="E563" s="2">
         <v>1528</v>
       </c>
-      <c r="F563" s="5">
+      <c r="F563" s="4">
         <v>1.2598167499999999</v>
       </c>
     </row>
@@ -12268,7 +12343,7 @@
       <c r="E564" s="2">
         <v>1434</v>
       </c>
-      <c r="F564" s="5">
+      <c r="F564" s="4">
         <v>1.01924686</v>
       </c>
     </row>
@@ -12288,7 +12363,7 @@
       <c r="E565" s="2">
         <v>1400</v>
       </c>
-      <c r="F565" s="5">
+      <c r="F565" s="4">
         <v>1.1057142900000001</v>
       </c>
     </row>
@@ -12308,7 +12383,7 @@
       <c r="E566" s="2">
         <v>1752</v>
       </c>
-      <c r="F566" s="5">
+      <c r="F566" s="4">
         <v>1.4991438399999999</v>
       </c>
     </row>
@@ -12328,7 +12403,7 @@
       <c r="E567" s="2">
         <v>1439</v>
       </c>
-      <c r="F567" s="5">
+      <c r="F567" s="4">
         <v>1.3325541700000001</v>
       </c>
     </row>
@@ -12348,7 +12423,7 @@
       <c r="E568" s="2">
         <v>1608</v>
       </c>
-      <c r="F568" s="5">
+      <c r="F568" s="4">
         <v>0.18470149</v>
       </c>
     </row>
@@ -12368,7 +12443,7 @@
       <c r="E569" s="2">
         <v>1358</v>
       </c>
-      <c r="F569" s="5">
+      <c r="F569" s="4">
         <v>1.34536082</v>
       </c>
     </row>
@@ -12388,7 +12463,7 @@
       <c r="E570" s="2">
         <v>1327</v>
       </c>
-      <c r="F570" s="5">
+      <c r="F570" s="4">
         <v>1.11680482</v>
       </c>
     </row>
@@ -12408,7 +12483,7 @@
       <c r="E571" s="2">
         <v>1520</v>
       </c>
-      <c r="F571" s="5">
+      <c r="F571" s="4">
         <v>0.6754386</v>
       </c>
     </row>
@@ -12428,7 +12503,7 @@
       <c r="E572" s="2">
         <v>1469</v>
       </c>
-      <c r="F572" s="5">
+      <c r="F572" s="4">
         <v>0.93992511999999995</v>
       </c>
     </row>
@@ -12448,7 +12523,7 @@
       <c r="E573" s="2">
         <v>1390</v>
       </c>
-      <c r="F573" s="5">
+      <c r="F573" s="4">
         <v>0.80265633999999997</v>
       </c>
     </row>
@@ -12468,7 +12543,7 @@
       <c r="E574" s="2">
         <v>1305</v>
       </c>
-      <c r="F574" s="5">
+      <c r="F574" s="4">
         <v>0.96551724000000005</v>
       </c>
     </row>
@@ -12488,7 +12563,7 @@
       <c r="E575" s="2">
         <v>1565</v>
       </c>
-      <c r="F575" s="5">
+      <c r="F575" s="4">
         <v>1.4722044700000001</v>
       </c>
     </row>
@@ -12508,7 +12583,7 @@
       <c r="E576" s="2">
         <v>1462</v>
       </c>
-      <c r="F576" s="5">
+      <c r="F576" s="4">
         <v>0.35430917000000001</v>
       </c>
     </row>
@@ -12528,7 +12603,7 @@
       <c r="E577" s="2">
         <v>1424</v>
       </c>
-      <c r="F577" s="5">
+      <c r="F577" s="4">
         <v>0.63658707999999997</v>
       </c>
     </row>
@@ -12548,7 +12623,7 @@
       <c r="E578" s="2">
         <v>1667</v>
       </c>
-      <c r="F578" s="5">
+      <c r="F578" s="4">
         <v>1.12477505</v>
       </c>
     </row>
@@ -12568,7 +12643,7 @@
       <c r="E579" s="2">
         <v>1560</v>
       </c>
-      <c r="F579" s="5">
+      <c r="F579" s="4">
         <v>0.80998168999999998</v>
       </c>
     </row>
@@ -12588,7 +12663,7 @@
       <c r="E580" s="2">
         <v>1420</v>
       </c>
-      <c r="F580" s="5">
+      <c r="F580" s="4">
         <v>0.37042254000000002</v>
       </c>
     </row>
@@ -12608,7 +12683,7 @@
       <c r="E581" s="2">
         <v>1445</v>
       </c>
-      <c r="F581" s="5">
+      <c r="F581" s="4">
         <v>1.01923875</v>
       </c>
     </row>
@@ -12628,7 +12703,7 @@
       <c r="E582" s="2">
         <v>1384</v>
       </c>
-      <c r="F582" s="5">
+      <c r="F582" s="4">
         <v>0.67467485999999999</v>
       </c>
     </row>
@@ -12648,7 +12723,7 @@
       <c r="E583" s="2">
         <v>1545</v>
       </c>
-      <c r="F583" s="5">
+      <c r="F583" s="4">
         <v>0.72935737</v>
       </c>
     </row>
@@ -12668,7 +12743,7 @@
       <c r="E584" s="2">
         <v>1507</v>
       </c>
-      <c r="F584" s="5">
+      <c r="F584" s="4">
         <v>1.03258129</v>
       </c>
     </row>
@@ -12688,7 +12763,7 @@
       <c r="E585" s="2">
         <v>1327</v>
       </c>
-      <c r="F585" s="5">
+      <c r="F585" s="4">
         <v>1.0254709900000001</v>
       </c>
     </row>
@@ -12708,7 +12783,7 @@
       <c r="E586" s="2">
         <v>1450</v>
       </c>
-      <c r="F586" s="5">
+      <c r="F586" s="4">
         <v>0.57724138000000003</v>
       </c>
     </row>
@@ -12728,7 +12803,7 @@
       <c r="E587" s="2">
         <v>1495</v>
       </c>
-      <c r="F587" s="5">
+      <c r="F587" s="4">
         <v>1.25016722</v>
       </c>
     </row>
@@ -12748,7 +12823,7 @@
       <c r="E588" s="2">
         <v>1447</v>
       </c>
-      <c r="F588" s="5">
+      <c r="F588" s="4">
         <v>1.0905321400000001</v>
       </c>
     </row>
@@ -12768,7 +12843,7 @@
       <c r="E589" s="2">
         <v>1431</v>
       </c>
-      <c r="F589" s="5">
+      <c r="F589" s="4">
         <v>0.74181584</v>
       </c>
     </row>
@@ -12788,7 +12863,7 @@
       <c r="E590" s="2">
         <v>1436</v>
       </c>
-      <c r="F590" s="5">
+      <c r="F590" s="4">
         <v>1.2441968400000001</v>
       </c>
     </row>
@@ -12808,7 +12883,7 @@
       <c r="E591" s="2">
         <v>1503</v>
       </c>
-      <c r="F591" s="5">
+      <c r="F591" s="4">
         <v>1.1672211100000001</v>
       </c>
     </row>
@@ -12828,7 +12903,7 @@
       <c r="E592" s="2">
         <v>1314</v>
       </c>
-      <c r="F592" s="5">
+      <c r="F592" s="4">
         <v>1.1415525099999999</v>
       </c>
     </row>
@@ -12848,7 +12923,7 @@
       <c r="E593" s="2">
         <v>1282</v>
       </c>
-      <c r="F593" s="5">
+      <c r="F593" s="4">
         <v>1.5052652099999999</v>
       </c>
     </row>
@@ -12868,7 +12943,7 @@
       <c r="E594" s="2">
         <v>1462</v>
       </c>
-      <c r="F594" s="5">
+      <c r="F594" s="4">
         <v>1.22790698</v>
       </c>
     </row>
@@ -12888,7 +12963,7 @@
       <c r="E595" s="2">
         <v>1564</v>
       </c>
-      <c r="F595" s="5">
+      <c r="F595" s="4">
         <v>0.93350383999999997</v>
       </c>
     </row>
@@ -12908,7 +12983,7 @@
       <c r="E596" s="2">
         <v>1416</v>
       </c>
-      <c r="F596" s="5">
+      <c r="F596" s="4">
         <v>0.90489642000000003</v>
       </c>
     </row>
@@ -12928,7 +13003,7 @@
       <c r="E597" s="2">
         <v>1393</v>
       </c>
-      <c r="F597" s="5">
+      <c r="F597" s="4">
         <v>0.88442211000000004</v>
       </c>
     </row>
@@ -12948,7 +13023,7 @@
       <c r="E598" s="2">
         <v>1637</v>
       </c>
-      <c r="F598" s="5">
+      <c r="F598" s="4">
         <v>0.89851862999999998</v>
       </c>
     </row>
@@ -12968,7 +13043,7 @@
       <c r="E599" s="2">
         <v>1468</v>
       </c>
-      <c r="F599" s="5">
+      <c r="F599" s="4">
         <v>1.4042915499999999</v>
       </c>
     </row>
@@ -12988,7 +13063,7 @@
       <c r="E600" s="2">
         <v>1511</v>
       </c>
-      <c r="F600" s="5">
+      <c r="F600" s="4">
         <v>1.0230531700000001</v>
       </c>
     </row>
@@ -13008,7 +13083,7 @@
       <c r="E601" s="2">
         <v>1450</v>
       </c>
-      <c r="F601" s="5">
+      <c r="F601" s="4">
         <v>1.68206897</v>
       </c>
     </row>
@@ -13028,7 +13103,7 @@
       <c r="E602" s="2">
         <v>1487</v>
       </c>
-      <c r="F602" s="5">
+      <c r="F602" s="4">
         <v>0.93031918000000002</v>
       </c>
     </row>
@@ -13048,7 +13123,7 @@
       <c r="E603" s="2">
         <v>1423</v>
       </c>
-      <c r="F603" s="5">
+      <c r="F603" s="4">
         <v>1.0182712599999999</v>
       </c>
     </row>
@@ -13068,7 +13143,7 @@
       <c r="E604" s="3">
         <v>1505</v>
       </c>
-      <c r="F604" s="6">
+      <c r="F604" s="5">
         <v>0.72823919999999998</v>
       </c>
     </row>
